--- a/Python-code/data_kmodes.xlsx
+++ b/Python-code/data_kmodes.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\市调\code\Python-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4E4186-E9BC-434B-A9C4-4AEA91255259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A533E5E6-0FF5-4B61-B836-56C9299A5362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="文本编码对照表" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$712</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="226">
   <si>
     <t>Q26</t>
   </si>
@@ -38,13 +42,691 @@
   </si>
   <si>
     <t>答题序号</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>1.1 请问您对单身经济有了解吗？</t>
+  </si>
+  <si>
+    <t>单选题</t>
+  </si>
+  <si>
+    <t>本题选项:</t>
+  </si>
+  <si>
+    <t>优劣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>非常了解</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>比较了解</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>不太了解</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>非常不了解</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>1.2 您觉得单身经济目前是否成为一种潮流？</t>
+  </si>
+  <si>
+    <t>优劣</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>1.3 请问您需要专门为单身人群设计的针对性产品吗？</t>
+  </si>
+  <si>
+    <t>需要</t>
+  </si>
+  <si>
+    <t>不需要</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>1.4 请问您是否购买过单身经济的衍生品</t>
+  </si>
+  <si>
+    <t>多选题</t>
+  </si>
+  <si>
+    <t>劣优</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有</t>
+  </si>
+  <si>
+    <t>买过迷你产品，小家电等</t>
+  </si>
+  <si>
+    <t>买过带有陪伴概念的虚拟电子产品</t>
+  </si>
+  <si>
+    <t>体验过一人食</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>1.5 您对单身经济衍生品持什么态度？</t>
+  </si>
+  <si>
+    <t>很支持，希望多多推出此类商品</t>
+  </si>
+  <si>
+    <t>不支持也不反对，偶尔会用但不会特意购买</t>
+  </si>
+  <si>
+    <t>不支持，不会购买</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>1.6 请选出单身经济的“单”字。</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身</t>
+  </si>
+  <si>
+    <t>经</t>
+  </si>
+  <si>
+    <t>单</t>
+  </si>
+  <si>
+    <t>济</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>2.1 您对一人食了解程度？</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>2.2 近半年您一人吃饭的频率</t>
+  </si>
+  <si>
+    <t>几乎没有</t>
+  </si>
+  <si>
+    <t>每四周一次</t>
+  </si>
+  <si>
+    <t>每三周一次</t>
+  </si>
+  <si>
+    <t>每两周一次</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>每周一次</t>
+  </si>
+  <si>
+    <t>每周几次</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>几乎每天</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2.3 您一人吃饭时的花费（单位：元）</t>
+  </si>
+  <si>
+    <t>15以内</t>
+  </si>
+  <si>
+    <t>15-29</t>
+  </si>
+  <si>
+    <t>30-44</t>
+  </si>
+  <si>
+    <t>45-60</t>
+  </si>
+  <si>
+    <t>60以上</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>2.4 您自己一个人吃饭时您会选择？</t>
+  </si>
+  <si>
+    <t>外卖</t>
+  </si>
+  <si>
+    <t>线下餐厅</t>
+  </si>
+  <si>
+    <t>自己买菜做饭</t>
+  </si>
+  <si>
+    <t>吃方便速食</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>2.4.1 您没有选择线下餐厅的原因是什么</t>
+  </si>
+  <si>
+    <t>没有时间</t>
+  </si>
+  <si>
+    <t>餐厅没有提供适合分量的饭菜</t>
+  </si>
+  <si>
+    <t>一个人在餐厅，尴尬</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>2.4.2 当2.4.1所述问题解决时，您愿意到餐厅吃饭吗？</t>
+  </si>
+  <si>
+    <t>愿意</t>
+  </si>
+  <si>
+    <t>不愿意</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>2.5 您了解一人食餐厅吗？</t>
+  </si>
+  <si>
+    <t>了解</t>
+  </si>
+  <si>
+    <t>不了解</t>
+  </si>
+  <si>
+    <t>Q14</t>
+  </si>
+  <si>
+    <t>2.5.1 您通过哪些渠道了解到一人食餐厅的？</t>
+  </si>
+  <si>
+    <t>他人推荐</t>
+  </si>
+  <si>
+    <t>网络平台（如大众点评app等）</t>
+  </si>
+  <si>
+    <t>实体广告(如商家宣传单，商场海报，)</t>
+  </si>
+  <si>
+    <t>传统媒体（如电视广告等）</t>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>2.5.1.1 您通过那些网络平台了解到一人食餐厅的？</t>
+  </si>
+  <si>
+    <t>好物分享平台（大众点评、知乎、小红书等）</t>
+  </si>
+  <si>
+    <t>短视频平台（快手、抖音等）</t>
+  </si>
+  <si>
+    <t>视频软件（爱奇艺、腾讯、哔哩哔哩等）</t>
+  </si>
+  <si>
+    <t>社交平台（微信、QQ、微博等）</t>
+  </si>
+  <si>
+    <t>Q16</t>
+  </si>
+  <si>
+    <t>2.6 您去过一人食餐厅吗？</t>
+  </si>
+  <si>
+    <t>去过</t>
+  </si>
+  <si>
+    <t>没去过</t>
+  </si>
+  <si>
+    <t>Q17</t>
+  </si>
+  <si>
+    <t>2.6.1 您去过哪类一人食餐厅？</t>
+  </si>
+  <si>
+    <t>一人火锅</t>
+  </si>
+  <si>
+    <t>一人烤肉</t>
+  </si>
+  <si>
+    <t>小份家常菜</t>
+  </si>
+  <si>
+    <t>一人小吃</t>
+  </si>
+  <si>
+    <t>日料、韩料</t>
+  </si>
+  <si>
+    <t>Q18</t>
+  </si>
+  <si>
+    <t>2.6.2 您觉得这些餐厅吸引你的地方在哪里？</t>
+  </si>
+  <si>
+    <t>有隔帘，吃饭不尴尬</t>
+  </si>
+  <si>
+    <t>分量合适，不浪费</t>
+  </si>
+  <si>
+    <t>价格合适</t>
+  </si>
+  <si>
+    <t>能增加单身社交</t>
+  </si>
+  <si>
+    <t>店内有宠物，增强陪伴感</t>
+  </si>
+  <si>
+    <t>Q19</t>
+  </si>
+  <si>
+    <t>2.7 您对现有一人食餐厅的评价（如：小火锅、小份菜……）</t>
+  </si>
+  <si>
+    <t>矩阵量表题</t>
+  </si>
+  <si>
+    <t>本题矩阵行:</t>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营理念</t>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>店面设计</t>
+  </si>
+  <si>
+    <t>R3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品设计</t>
+  </si>
+  <si>
+    <t>R4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>人均消费</t>
+  </si>
+  <si>
+    <t>R5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后服务</t>
+  </si>
+  <si>
+    <t>Q20</t>
+  </si>
+  <si>
+    <t>3.1 您会因为什么原因进行一人食？</t>
+  </si>
+  <si>
+    <t>单身，所以一般都一人食</t>
+  </si>
+  <si>
+    <t>工作或学业繁忙，没什么空余时间与其他人一起吃饭</t>
+  </si>
+  <si>
+    <t>自己突然想吃什么东西了，就会自己去</t>
+  </si>
+  <si>
+    <t>看了一些网络宣传或影视作品后（如《孤独的美食家》）想体验一人食</t>
+  </si>
+  <si>
+    <t>疫情需要</t>
+  </si>
+  <si>
+    <t>Q21</t>
+  </si>
+  <si>
+    <t>3.2您觉得以下因素对一人食餐厅市场营销影响程度如何？</t>
+  </si>
+  <si>
+    <t>矩阵单选题</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>评价口碑</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>地理位置</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>环境布局</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>宣传力度</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>价格优惠</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>规模大小</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>口感合适</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>口味良好</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>分量适宜</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>就餐氛围</t>
+  </si>
+  <si>
+    <t>Q22</t>
+  </si>
+  <si>
+    <t>3.3 您偏好的餐厅（包括但不限于一人食餐厅）会有哪些因素吸引您呢？</t>
+  </si>
+  <si>
+    <t>菜品种类与口味</t>
+  </si>
+  <si>
+    <t>消费价格</t>
+  </si>
+  <si>
+    <t>服务到位</t>
+  </si>
+  <si>
+    <t>评分评价</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Q23</t>
+  </si>
+  <si>
+    <t>3.3.1 您偏好哪些口味的菜品呢？</t>
+  </si>
+  <si>
+    <t>偏甜</t>
+  </si>
+  <si>
+    <t>偏咸</t>
+  </si>
+  <si>
+    <t>偏辣</t>
+  </si>
+  <si>
+    <t>偏酸</t>
+  </si>
+  <si>
+    <t>Q24</t>
+  </si>
+  <si>
+    <t>3.3.2 您偏好哪些种类的菜品呢？</t>
+  </si>
+  <si>
+    <t>快餐便当</t>
+  </si>
+  <si>
+    <t>火锅、炖汤</t>
+  </si>
+  <si>
+    <t>香锅、冒菜、麻辣烫</t>
+  </si>
+  <si>
+    <t>地方菜系</t>
+  </si>
+  <si>
+    <t>炸鸡、炸串、烧烤</t>
+  </si>
+  <si>
+    <t>日料、韩料等外国菜系</t>
+  </si>
+  <si>
+    <t>Q25</t>
+  </si>
+  <si>
+    <t>3.4 您觉得以下因素对您在一人食餐厅餐饮体验的满意度的影响程度如何</t>
+  </si>
+  <si>
+    <t>是否带有隔断的单人餐位</t>
+  </si>
+  <si>
+    <t>菜品分量</t>
+  </si>
+  <si>
+    <t>是否提供外卖服务</t>
+  </si>
+  <si>
+    <t>是否提供占座服务</t>
+  </si>
+  <si>
+    <t>进店时是否有人主动问候、询问</t>
+  </si>
+  <si>
+    <t>R6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否提供单身社交相关服务</t>
+  </si>
+  <si>
+    <t>R7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格是否合适</t>
+  </si>
+  <si>
+    <t>R8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务是否随叫随到</t>
+  </si>
+  <si>
+    <t>R9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>店内是否有宠物或者相关装饰减少孤独感</t>
+  </si>
+  <si>
+    <t>4.1 您的性别</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>4.2 您的年龄</t>
+  </si>
+  <si>
+    <t>18到24岁</t>
+  </si>
+  <si>
+    <t>25到30岁</t>
+  </si>
+  <si>
+    <t>31到40岁</t>
+  </si>
+  <si>
+    <t>40岁以上</t>
+  </si>
+  <si>
+    <t>4.3 您目前的最高的学历（包含在读）</t>
+  </si>
+  <si>
+    <t>初中及以下</t>
+  </si>
+  <si>
+    <t>高中/中专/技校</t>
+  </si>
+  <si>
+    <t>大学专科</t>
+  </si>
+  <si>
+    <t>大学本科</t>
+  </si>
+  <si>
+    <t>研究生及以上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4 您的工作</t>
+  </si>
+  <si>
+    <t>在校学生/企业高管/政府/机关干部/公务员/事业单位工作人员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通职员</t>
+  </si>
+  <si>
+    <t>自由职业者</t>
+  </si>
+  <si>
+    <t>个体</t>
+  </si>
+  <si>
+    <t>普通工人</t>
+  </si>
+  <si>
+    <t>商业服务业职工</t>
+  </si>
+  <si>
+    <t>4.5 您每月的可支配收入（如果是学生请回答生活费）（单位：元）</t>
+  </si>
+  <si>
+    <t>小于4000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于8000大于4000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于1300000大于8000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于13000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,13 +749,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -100,16 +803,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,7 +1156,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F712"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -463,10 +1173,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -506,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -526,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -546,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -586,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -606,7 +1316,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -614,7 +1324,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -646,7 +1356,7 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -666,7 +1376,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -686,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -726,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -746,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -786,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -806,7 +1516,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -814,7 +1524,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -886,7 +1596,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -926,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -966,7 +1676,7 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F26">
         <v>4</v>
@@ -1006,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F28">
         <v>5</v>
@@ -1014,7 +1724,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1026,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -1046,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -1066,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F31">
         <v>5</v>
@@ -1086,7 +1796,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -1106,7 +1816,7 @@
         <v>3</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -1126,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -1146,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -1186,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -1206,7 +1916,7 @@
         <v>3</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F38">
         <v>6</v>
@@ -1214,7 +1924,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1246,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -1266,7 +1976,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -1286,7 +1996,7 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F42">
         <v>4</v>
@@ -1306,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -1326,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F44">
         <v>4</v>
@@ -1346,7 +2056,7 @@
         <v>4</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>5</v>
@@ -1366,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>4</v>
@@ -1386,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -1406,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -1414,7 +2124,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -1426,7 +2136,7 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -1446,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F50">
         <v>3</v>
@@ -1466,7 +2176,7 @@
         <v>4</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>3</v>
@@ -1506,7 +2216,7 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F53">
         <v>5</v>
@@ -1566,7 +2276,7 @@
         <v>3</v>
       </c>
       <c r="E56">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F56">
         <v>3</v>
@@ -1586,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>5</v>
@@ -1614,7 +2324,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1626,7 +2336,7 @@
         <v>2</v>
       </c>
       <c r="E59">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F59">
         <v>4</v>
@@ -1646,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F60">
         <v>3</v>
@@ -1666,7 +2376,7 @@
         <v>3</v>
       </c>
       <c r="E61">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -1686,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F62">
         <v>4</v>
@@ -1706,7 +2416,7 @@
         <v>3</v>
       </c>
       <c r="E63">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F63">
         <v>3</v>
@@ -1746,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F65">
         <v>3</v>
@@ -1766,7 +2476,7 @@
         <v>4</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F66">
         <v>6</v>
@@ -1786,7 +2496,7 @@
         <v>3</v>
       </c>
       <c r="E67">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F67">
         <v>3</v>
@@ -1814,7 +2524,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1826,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="E69">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F69">
         <v>4</v>
@@ -1846,7 +2556,7 @@
         <v>3</v>
       </c>
       <c r="E70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F70">
         <v>4</v>
@@ -1886,7 +2596,7 @@
         <v>3</v>
       </c>
       <c r="E72">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F72">
         <v>4</v>
@@ -1926,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F74">
         <v>4</v>
@@ -1946,7 +2656,7 @@
         <v>2</v>
       </c>
       <c r="E75">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F75">
         <v>3</v>
@@ -1966,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F76">
         <v>5</v>
@@ -1986,7 +2696,7 @@
         <v>3</v>
       </c>
       <c r="E77">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F77">
         <v>3</v>
@@ -2006,7 +2716,7 @@
         <v>3</v>
       </c>
       <c r="E78">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F78">
         <v>3</v>
@@ -2014,7 +2724,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -2046,7 +2756,7 @@
         <v>2</v>
       </c>
       <c r="E80">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F80">
         <v>4</v>
@@ -2054,7 +2764,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -2066,7 +2776,7 @@
         <v>2</v>
       </c>
       <c r="E81">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F81">
         <v>2</v>
@@ -2074,7 +2784,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -2086,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F82">
         <v>2</v>
@@ -2094,7 +2804,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -2106,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F83">
         <v>5</v>
@@ -2114,7 +2824,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -2134,7 +2844,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -2146,7 +2856,7 @@
         <v>4</v>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>4</v>
@@ -2154,7 +2864,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -2166,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="E86">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F86">
         <v>5</v>
@@ -2174,7 +2884,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -2186,7 +2896,7 @@
         <v>5</v>
       </c>
       <c r="E87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F87">
         <v>4</v>
@@ -2194,7 +2904,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -2206,7 +2916,7 @@
         <v>4</v>
       </c>
       <c r="E88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F88">
         <v>3</v>
@@ -2214,7 +2924,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -2226,7 +2936,7 @@
         <v>4</v>
       </c>
       <c r="E89">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F89">
         <v>3</v>
@@ -2234,7 +2944,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -2246,7 +2956,7 @@
         <v>2</v>
       </c>
       <c r="E90">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F90">
         <v>5</v>
@@ -2266,7 +2976,7 @@
         <v>3</v>
       </c>
       <c r="E91">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F91">
         <v>4</v>
@@ -2286,7 +2996,7 @@
         <v>3</v>
       </c>
       <c r="E92">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F92">
         <v>4</v>
@@ -2306,7 +3016,7 @@
         <v>2</v>
       </c>
       <c r="E93">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F93">
         <v>2</v>
@@ -2326,7 +3036,7 @@
         <v>3</v>
       </c>
       <c r="E94">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F94">
         <v>3</v>
@@ -2346,7 +3056,7 @@
         <v>3</v>
       </c>
       <c r="E95">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F95">
         <v>3</v>
@@ -2366,7 +3076,7 @@
         <v>2</v>
       </c>
       <c r="E96">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F96">
         <v>3</v>
@@ -2406,7 +3116,7 @@
         <v>3</v>
       </c>
       <c r="E98">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F98">
         <v>3</v>
@@ -2414,7 +3124,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -2426,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="E99">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F99">
         <v>4</v>
@@ -2446,7 +3156,7 @@
         <v>5</v>
       </c>
       <c r="E100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F100">
         <v>3</v>
@@ -2506,7 +3216,7 @@
         <v>3</v>
       </c>
       <c r="E103">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F103">
         <v>6</v>
@@ -2526,7 +3236,7 @@
         <v>2</v>
       </c>
       <c r="E104">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F104">
         <v>2</v>
@@ -2546,7 +3256,7 @@
         <v>2</v>
       </c>
       <c r="E105">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F105">
         <v>2</v>
@@ -2566,7 +3276,7 @@
         <v>3</v>
       </c>
       <c r="E106">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F106">
         <v>5</v>
@@ -2586,7 +3296,7 @@
         <v>3</v>
       </c>
       <c r="E107">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F107">
         <v>3</v>
@@ -2614,7 +3324,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -2626,7 +3336,7 @@
         <v>2</v>
       </c>
       <c r="E109">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F109">
         <v>4</v>
@@ -2646,7 +3356,7 @@
         <v>2</v>
       </c>
       <c r="E110">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F110">
         <v>3</v>
@@ -2686,7 +3396,7 @@
         <v>2</v>
       </c>
       <c r="E112">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F112">
         <v>4</v>
@@ -2706,7 +3416,7 @@
         <v>2</v>
       </c>
       <c r="E113">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F113">
         <v>5</v>
@@ -2766,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F116">
         <v>2</v>
@@ -2786,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F117">
         <v>3</v>
@@ -2806,7 +3516,7 @@
         <v>2</v>
       </c>
       <c r="E118">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F118">
         <v>4</v>
@@ -2814,7 +3524,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -2826,7 +3536,7 @@
         <v>2</v>
       </c>
       <c r="E119">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F119">
         <v>3</v>
@@ -2846,7 +3556,7 @@
         <v>2</v>
       </c>
       <c r="E120">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -2866,7 +3576,7 @@
         <v>3</v>
       </c>
       <c r="E121">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F121">
         <v>4</v>
@@ -2886,7 +3596,7 @@
         <v>3</v>
       </c>
       <c r="E122">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -2906,7 +3616,7 @@
         <v>2</v>
       </c>
       <c r="E123">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F123">
         <v>3</v>
@@ -2926,7 +3636,7 @@
         <v>4</v>
       </c>
       <c r="E124">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F124">
         <v>2</v>
@@ -2946,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F125">
         <v>2</v>
@@ -2966,7 +3676,7 @@
         <v>2</v>
       </c>
       <c r="E126">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F126">
         <v>3</v>
@@ -2986,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="E127">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F127">
         <v>4</v>
@@ -3014,7 +3724,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -3026,7 +3736,7 @@
         <v>4</v>
       </c>
       <c r="E129">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F129">
         <v>3</v>
@@ -3066,7 +3776,7 @@
         <v>3</v>
       </c>
       <c r="E131">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F131">
         <v>3</v>
@@ -3086,7 +3796,7 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F132">
         <v>4</v>
@@ -3106,7 +3816,7 @@
         <v>3</v>
       </c>
       <c r="E133">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F133">
         <v>4</v>
@@ -3126,7 +3836,7 @@
         <v>3</v>
       </c>
       <c r="E134">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F134">
         <v>4</v>
@@ -3146,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="E135">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F135">
         <v>3</v>
@@ -3166,7 +3876,7 @@
         <v>3</v>
       </c>
       <c r="E136">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F136">
         <v>5</v>
@@ -3186,7 +3896,7 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F137">
         <v>4</v>
@@ -3206,7 +3916,7 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F138">
         <v>2</v>
@@ -3214,7 +3924,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -3226,7 +3936,7 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F139">
         <v>3</v>
@@ -3246,7 +3956,7 @@
         <v>3</v>
       </c>
       <c r="E140">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F140">
         <v>4</v>
@@ -3266,7 +3976,7 @@
         <v>3</v>
       </c>
       <c r="E141">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F141">
         <v>4</v>
@@ -3286,7 +3996,7 @@
         <v>3</v>
       </c>
       <c r="E142">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F142">
         <v>3</v>
@@ -3306,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="E143">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F143">
         <v>3</v>
@@ -3326,7 +4036,7 @@
         <v>3</v>
       </c>
       <c r="E144">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F144">
         <v>3</v>
@@ -3346,7 +4056,7 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F145">
         <v>2</v>
@@ -3366,7 +4076,7 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F146">
         <v>3</v>
@@ -3386,7 +4096,7 @@
         <v>1</v>
       </c>
       <c r="E147">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F147">
         <v>3</v>
@@ -3414,7 +4124,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -3426,7 +4136,7 @@
         <v>3</v>
       </c>
       <c r="E149">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F149">
         <v>4</v>
@@ -3466,7 +4176,7 @@
         <v>3</v>
       </c>
       <c r="E151">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F151">
         <v>5</v>
@@ -3486,7 +4196,7 @@
         <v>3</v>
       </c>
       <c r="E152">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F152">
         <v>3</v>
@@ -3506,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="E153">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F153">
         <v>2</v>
@@ -3526,7 +4236,7 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F154">
         <v>4</v>
@@ -3546,7 +4256,7 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F155">
         <v>3</v>
@@ -3566,7 +4276,7 @@
         <v>5</v>
       </c>
       <c r="E156">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F156">
         <v>5</v>
@@ -3606,7 +4316,7 @@
         <v>4</v>
       </c>
       <c r="E158">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F158">
         <v>3</v>
@@ -3614,7 +4324,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -3626,7 +4336,7 @@
         <v>4</v>
       </c>
       <c r="E159">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F159">
         <v>3</v>
@@ -3646,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="E160">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F160">
         <v>2</v>
@@ -3666,7 +4376,7 @@
         <v>3</v>
       </c>
       <c r="E161">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F161">
         <v>2</v>
@@ -3686,7 +4396,7 @@
         <v>5</v>
       </c>
       <c r="E162">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F162">
         <v>5</v>
@@ -3706,7 +4416,7 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F163">
         <v>2</v>
@@ -3726,7 +4436,7 @@
         <v>4</v>
       </c>
       <c r="E164">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F164">
         <v>3</v>
@@ -3746,7 +4456,7 @@
         <v>3</v>
       </c>
       <c r="E165">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F165">
         <v>2</v>
@@ -3766,7 +4476,7 @@
         <v>3</v>
       </c>
       <c r="E166">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F166">
         <v>3</v>
@@ -3806,7 +4516,7 @@
         <v>1</v>
       </c>
       <c r="E168">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F168">
         <v>6</v>
@@ -3814,7 +4524,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -3826,7 +4536,7 @@
         <v>4</v>
       </c>
       <c r="E169">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F169">
         <v>4</v>
@@ -3846,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="E170">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F170">
         <v>5</v>
@@ -3866,7 +4576,7 @@
         <v>3</v>
       </c>
       <c r="E171">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F171">
         <v>3</v>
@@ -3886,7 +4596,7 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F172">
         <v>2</v>
@@ -3906,7 +4616,7 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F173">
         <v>3</v>
@@ -3926,7 +4636,7 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F174">
         <v>2</v>
@@ -3946,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="E175">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F175">
         <v>3</v>
@@ -3966,7 +4676,7 @@
         <v>3</v>
       </c>
       <c r="E176">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F176">
         <v>5</v>
@@ -4006,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F178">
         <v>2</v>
@@ -4014,7 +4724,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B179">
         <v>2</v>
@@ -4026,7 +4736,7 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F179">
         <v>3</v>
@@ -4046,7 +4756,7 @@
         <v>3</v>
       </c>
       <c r="E180">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F180">
         <v>6</v>
@@ -4054,7 +4764,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -4066,7 +4776,7 @@
         <v>3</v>
       </c>
       <c r="E181">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F181">
         <v>3</v>
@@ -4074,7 +4784,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -4086,7 +4796,7 @@
         <v>3</v>
       </c>
       <c r="E182">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F182">
         <v>2</v>
@@ -4094,7 +4804,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -4106,7 +4816,7 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F183">
         <v>4</v>
@@ -4114,7 +4824,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B184">
         <v>2</v>
@@ -4126,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="E184">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F184">
         <v>2</v>
@@ -4134,7 +4844,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="B185">
         <v>2</v>
@@ -4146,7 +4856,7 @@
         <v>3</v>
       </c>
       <c r="E185">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F185">
         <v>3</v>
@@ -4154,7 +4864,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -4166,7 +4876,7 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F186">
         <v>2</v>
@@ -4174,7 +4884,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -4194,7 +4904,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="B188">
         <v>2</v>
@@ -4206,7 +4916,7 @@
         <v>3</v>
       </c>
       <c r="E188">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F188">
         <v>2</v>
@@ -4214,7 +4924,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -4234,7 +4944,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="B190">
         <v>2</v>
@@ -4246,7 +4956,7 @@
         <v>1</v>
       </c>
       <c r="E190">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F190">
         <v>2</v>
@@ -4266,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="E191">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F191">
         <v>2</v>
@@ -4286,7 +4996,7 @@
         <v>3</v>
       </c>
       <c r="E192">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F192">
         <v>4</v>
@@ -4306,7 +5016,7 @@
         <v>3</v>
       </c>
       <c r="E193">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F193">
         <v>4</v>
@@ -4326,7 +5036,7 @@
         <v>2</v>
       </c>
       <c r="E194">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F194">
         <v>3</v>
@@ -4346,7 +5056,7 @@
         <v>4</v>
       </c>
       <c r="E195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F195">
         <v>3</v>
@@ -4366,7 +5076,7 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F196">
         <v>3</v>
@@ -4406,7 +5116,7 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F198">
         <v>3</v>
@@ -4414,7 +5124,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B199">
         <v>2</v>
@@ -4426,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="E199">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F199">
         <v>4</v>
@@ -4446,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="E200">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F200">
         <v>4</v>
@@ -4466,7 +5176,7 @@
         <v>5</v>
       </c>
       <c r="E201">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F201">
         <v>5</v>
@@ -4506,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="E203">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F203">
         <v>2</v>
@@ -4526,7 +5236,7 @@
         <v>2</v>
       </c>
       <c r="E204">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F204">
         <v>2</v>
@@ -4546,7 +5256,7 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F205">
         <v>3</v>
@@ -4566,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="E206">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F206">
         <v>6</v>
@@ -4586,7 +5296,7 @@
         <v>2</v>
       </c>
       <c r="E207">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F207">
         <v>4</v>
@@ -4614,7 +5324,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B209">
         <v>2</v>
@@ -4646,7 +5356,7 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F210">
         <v>3</v>
@@ -4666,7 +5376,7 @@
         <v>1</v>
       </c>
       <c r="E211">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F211">
         <v>2</v>
@@ -4686,7 +5396,7 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F212">
         <v>2</v>
@@ -4706,7 +5416,7 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F213">
         <v>3</v>
@@ -4746,7 +5456,7 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F215">
         <v>6</v>
@@ -4766,7 +5476,7 @@
         <v>2</v>
       </c>
       <c r="E216">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F216">
         <v>3</v>
@@ -4786,7 +5496,7 @@
         <v>4</v>
       </c>
       <c r="E217">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F217">
         <v>5</v>
@@ -4806,7 +5516,7 @@
         <v>1</v>
       </c>
       <c r="E218">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F218">
         <v>3</v>
@@ -4814,7 +5524,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B219">
         <v>2</v>
@@ -4826,7 +5536,7 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F219">
         <v>4</v>
@@ -4926,7 +5636,7 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F224">
         <v>2</v>
@@ -4946,7 +5656,7 @@
         <v>2</v>
       </c>
       <c r="E225">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F225">
         <v>3</v>
@@ -4966,7 +5676,7 @@
         <v>2</v>
       </c>
       <c r="E226">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F226">
         <v>3</v>
@@ -5006,7 +5716,7 @@
         <v>2</v>
       </c>
       <c r="E228">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F228">
         <v>3</v>
@@ -5014,7 +5724,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -5026,7 +5736,7 @@
         <v>4</v>
       </c>
       <c r="E229">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F229">
         <v>4</v>
@@ -5046,7 +5756,7 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F230">
         <v>6</v>
@@ -5066,7 +5776,7 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F231">
         <v>2</v>
@@ -5126,7 +5836,7 @@
         <v>2</v>
       </c>
       <c r="E234">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F234">
         <v>6</v>
@@ -5146,7 +5856,7 @@
         <v>2</v>
       </c>
       <c r="E235">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F235">
         <v>4</v>
@@ -5166,7 +5876,7 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F236">
         <v>4</v>
@@ -5186,7 +5896,7 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F237">
         <v>2</v>
@@ -5206,7 +5916,7 @@
         <v>2</v>
       </c>
       <c r="E238">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F238">
         <v>5</v>
@@ -5214,7 +5924,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B239">
         <v>2</v>
@@ -5226,7 +5936,7 @@
         <v>4</v>
       </c>
       <c r="E239">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F239">
         <v>3</v>
@@ -5246,7 +5956,7 @@
         <v>4</v>
       </c>
       <c r="E240">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F240">
         <v>3</v>
@@ -5286,7 +5996,7 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F242">
         <v>3</v>
@@ -5326,7 +6036,7 @@
         <v>2</v>
       </c>
       <c r="E244">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F244">
         <v>3</v>
@@ -5346,7 +6056,7 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F245">
         <v>3</v>
@@ -5366,7 +6076,7 @@
         <v>2</v>
       </c>
       <c r="E246">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F246">
         <v>4</v>
@@ -5386,7 +6096,7 @@
         <v>2</v>
       </c>
       <c r="E247">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F247">
         <v>3</v>
@@ -5406,7 +6116,7 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F248">
         <v>3</v>
@@ -5414,7 +6124,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B249">
         <v>2</v>
@@ -5446,7 +6156,7 @@
         <v>4</v>
       </c>
       <c r="E250">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F250">
         <v>4</v>
@@ -5466,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="E251">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F251">
         <v>4</v>
@@ -5486,7 +6196,7 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F252">
         <v>2</v>
@@ -5506,7 +6216,7 @@
         <v>2</v>
       </c>
       <c r="E253">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F253">
         <v>3</v>
@@ -5526,7 +6236,7 @@
         <v>2</v>
       </c>
       <c r="E254">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F254">
         <v>5</v>
@@ -5546,7 +6256,7 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F255">
         <v>3</v>
@@ -5566,7 +6276,7 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F256">
         <v>2</v>
@@ -5586,7 +6296,7 @@
         <v>2</v>
       </c>
       <c r="E257">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F257">
         <v>2</v>
@@ -5606,7 +6316,7 @@
         <v>3</v>
       </c>
       <c r="E258">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F258">
         <v>3</v>
@@ -5614,7 +6324,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -5646,7 +6356,7 @@
         <v>1</v>
       </c>
       <c r="E260">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F260">
         <v>4</v>
@@ -5666,7 +6376,7 @@
         <v>2</v>
       </c>
       <c r="E261">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F261">
         <v>2</v>
@@ -5706,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="E263">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F263">
         <v>4</v>
@@ -5726,7 +6436,7 @@
         <v>3</v>
       </c>
       <c r="E264">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F264">
         <v>2</v>
@@ -5746,7 +6456,7 @@
         <v>2</v>
       </c>
       <c r="E265">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F265">
         <v>4</v>
@@ -5766,7 +6476,7 @@
         <v>2</v>
       </c>
       <c r="E266">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F266">
         <v>3</v>
@@ -5786,7 +6496,7 @@
         <v>3</v>
       </c>
       <c r="E267">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F267">
         <v>3</v>
@@ -5806,7 +6516,7 @@
         <v>3</v>
       </c>
       <c r="E268">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F268">
         <v>4</v>
@@ -5814,7 +6524,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -5826,7 +6536,7 @@
         <v>2</v>
       </c>
       <c r="E269">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F269">
         <v>2</v>
@@ -5846,7 +6556,7 @@
         <v>2</v>
       </c>
       <c r="E270">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F270">
         <v>2</v>
@@ -5866,7 +6576,7 @@
         <v>1</v>
       </c>
       <c r="E271">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F271">
         <v>3</v>
@@ -5886,7 +6596,7 @@
         <v>2</v>
       </c>
       <c r="E272">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F272">
         <v>4</v>
@@ -5906,7 +6616,7 @@
         <v>2</v>
       </c>
       <c r="E273">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F273">
         <v>2</v>
@@ -5966,7 +6676,7 @@
         <v>3</v>
       </c>
       <c r="E276">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F276">
         <v>3</v>
@@ -5986,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="E277">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F277">
         <v>3</v>
@@ -6014,7 +6724,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B279">
         <v>2</v>
@@ -6026,7 +6736,7 @@
         <v>3</v>
       </c>
       <c r="E279">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F279">
         <v>3</v>
@@ -6046,7 +6756,7 @@
         <v>2</v>
       </c>
       <c r="E280">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F280">
         <v>3</v>
@@ -6054,7 +6764,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="B281">
         <v>2</v>
@@ -6066,7 +6776,7 @@
         <v>1</v>
       </c>
       <c r="E281">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F281">
         <v>3</v>
@@ -6074,7 +6784,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -6094,7 +6804,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -6106,7 +6816,7 @@
         <v>2</v>
       </c>
       <c r="E283">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F283">
         <v>3</v>
@@ -6114,7 +6824,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -6126,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="E284">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F284">
         <v>4</v>
@@ -6134,7 +6844,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="B285">
         <v>2</v>
@@ -6154,7 +6864,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -6166,7 +6876,7 @@
         <v>2</v>
       </c>
       <c r="E286">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F286">
         <v>3</v>
@@ -6174,7 +6884,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -6186,7 +6896,7 @@
         <v>3</v>
       </c>
       <c r="E287">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F287">
         <v>2</v>
@@ -6194,7 +6904,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -6206,7 +6916,7 @@
         <v>2</v>
       </c>
       <c r="E288">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F288">
         <v>4</v>
@@ -6214,7 +6924,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="B289">
         <v>2</v>
@@ -6226,7 +6936,7 @@
         <v>1</v>
       </c>
       <c r="E289">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F289">
         <v>2</v>
@@ -6234,7 +6944,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -6246,7 +6956,7 @@
         <v>3</v>
       </c>
       <c r="E290">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F290">
         <v>4</v>
@@ -6286,7 +6996,7 @@
         <v>2</v>
       </c>
       <c r="E292">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F292">
         <v>2</v>
@@ -6306,7 +7016,7 @@
         <v>2</v>
       </c>
       <c r="E293">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F293">
         <v>2</v>
@@ -6326,7 +7036,7 @@
         <v>2</v>
       </c>
       <c r="E294">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F294">
         <v>2</v>
@@ -6346,7 +7056,7 @@
         <v>3</v>
       </c>
       <c r="E295">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F295">
         <v>3</v>
@@ -6386,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="E297">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F297">
         <v>3</v>
@@ -6406,7 +7116,7 @@
         <v>2</v>
       </c>
       <c r="E298">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F298">
         <v>3</v>
@@ -6414,7 +7124,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B299">
         <v>2</v>
@@ -6426,7 +7136,7 @@
         <v>2</v>
       </c>
       <c r="E299">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F299">
         <v>3</v>
@@ -6466,7 +7176,7 @@
         <v>1</v>
       </c>
       <c r="E301">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F301">
         <v>2</v>
@@ -6486,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="E302">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F302">
         <v>3</v>
@@ -6506,7 +7216,7 @@
         <v>2</v>
       </c>
       <c r="E303">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F303">
         <v>2</v>
@@ -6526,7 +7236,7 @@
         <v>2</v>
       </c>
       <c r="E304">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F304">
         <v>2</v>
@@ -6546,7 +7256,7 @@
         <v>3</v>
       </c>
       <c r="E305">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F305">
         <v>3</v>
@@ -6566,7 +7276,7 @@
         <v>1</v>
       </c>
       <c r="E306">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F306">
         <v>4</v>
@@ -6606,7 +7316,7 @@
         <v>3</v>
       </c>
       <c r="E308">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F308">
         <v>2</v>
@@ -6614,7 +7324,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -6646,7 +7356,7 @@
         <v>2</v>
       </c>
       <c r="E310">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F310">
         <v>3</v>
@@ -6666,7 +7376,7 @@
         <v>3</v>
       </c>
       <c r="E311">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F311">
         <v>4</v>
@@ -6686,7 +7396,7 @@
         <v>2</v>
       </c>
       <c r="E312">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F312">
         <v>3</v>
@@ -6706,7 +7416,7 @@
         <v>2</v>
       </c>
       <c r="E313">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F313">
         <v>2</v>
@@ -6726,7 +7436,7 @@
         <v>4</v>
       </c>
       <c r="E314">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F314">
         <v>3</v>
@@ -6766,7 +7476,7 @@
         <v>2</v>
       </c>
       <c r="E316">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F316">
         <v>5</v>
@@ -6806,7 +7516,7 @@
         <v>5</v>
       </c>
       <c r="E318">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F318">
         <v>3</v>
@@ -6814,7 +7524,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -6846,7 +7556,7 @@
         <v>4</v>
       </c>
       <c r="E320">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F320">
         <v>4</v>
@@ -6866,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="E321">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F321">
         <v>5</v>
@@ -6886,7 +7596,7 @@
         <v>2</v>
       </c>
       <c r="E322">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F322">
         <v>2</v>
@@ -6926,7 +7636,7 @@
         <v>4</v>
       </c>
       <c r="E324">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F324">
         <v>3</v>
@@ -6946,7 +7656,7 @@
         <v>5</v>
       </c>
       <c r="E325">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F325">
         <v>4</v>
@@ -6966,7 +7676,7 @@
         <v>3</v>
       </c>
       <c r="E326">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F326">
         <v>4</v>
@@ -7006,7 +7716,7 @@
         <v>2</v>
       </c>
       <c r="E328">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F328">
         <v>3</v>
@@ -7014,7 +7724,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -7046,7 +7756,7 @@
         <v>2</v>
       </c>
       <c r="E330">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F330">
         <v>5</v>
@@ -7066,7 +7776,7 @@
         <v>2</v>
       </c>
       <c r="E331">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F331">
         <v>2</v>
@@ -7086,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="E332">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F332">
         <v>3</v>
@@ -7106,7 +7816,7 @@
         <v>4</v>
       </c>
       <c r="E333">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F333">
         <v>6</v>
@@ -7126,7 +7836,7 @@
         <v>5</v>
       </c>
       <c r="E334">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F334">
         <v>5</v>
@@ -7146,7 +7856,7 @@
         <v>3</v>
       </c>
       <c r="E335">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F335">
         <v>4</v>
@@ -7166,7 +7876,7 @@
         <v>2</v>
       </c>
       <c r="E336">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F336">
         <v>3</v>
@@ -7214,7 +7924,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -7226,7 +7936,7 @@
         <v>3</v>
       </c>
       <c r="E339">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F339">
         <v>3</v>
@@ -7246,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="E340">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F340">
         <v>2</v>
@@ -7306,7 +8016,7 @@
         <v>2</v>
       </c>
       <c r="E343">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F343">
         <v>4</v>
@@ -7326,7 +8036,7 @@
         <v>5</v>
       </c>
       <c r="E344">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F344">
         <v>4</v>
@@ -7346,7 +8056,7 @@
         <v>2</v>
       </c>
       <c r="E345">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F345">
         <v>3</v>
@@ -7366,7 +8076,7 @@
         <v>3</v>
       </c>
       <c r="E346">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F346">
         <v>3</v>
@@ -7386,7 +8096,7 @@
         <v>1</v>
       </c>
       <c r="E347">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F347">
         <v>4</v>
@@ -7414,7 +8124,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -7426,7 +8136,7 @@
         <v>1</v>
       </c>
       <c r="E349">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F349">
         <v>3</v>
@@ -7446,7 +8156,7 @@
         <v>4</v>
       </c>
       <c r="E350">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F350">
         <v>3</v>
@@ -7466,7 +8176,7 @@
         <v>2</v>
       </c>
       <c r="E351">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F351">
         <v>2</v>
@@ -7486,7 +8196,7 @@
         <v>1</v>
       </c>
       <c r="E352">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F352">
         <v>3</v>
@@ -7506,7 +8216,7 @@
         <v>3</v>
       </c>
       <c r="E353">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F353">
         <v>5</v>
@@ -7546,7 +8256,7 @@
         <v>2</v>
       </c>
       <c r="E355">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F355">
         <v>3</v>
@@ -7586,7 +8296,7 @@
         <v>2</v>
       </c>
       <c r="E357">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F357">
         <v>4</v>
@@ -7606,7 +8316,7 @@
         <v>3</v>
       </c>
       <c r="E358">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F358">
         <v>4</v>
@@ -7614,7 +8324,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -7626,7 +8336,7 @@
         <v>5</v>
       </c>
       <c r="E359">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F359">
         <v>4</v>
@@ -7646,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="E360">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F360">
         <v>2</v>
@@ -7666,7 +8376,7 @@
         <v>4</v>
       </c>
       <c r="E361">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F361">
         <v>3</v>
@@ -7686,7 +8396,7 @@
         <v>2</v>
       </c>
       <c r="E362">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F362">
         <v>3</v>
@@ -7706,7 +8416,7 @@
         <v>3</v>
       </c>
       <c r="E363">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F363">
         <v>2</v>
@@ -7746,7 +8456,7 @@
         <v>3</v>
       </c>
       <c r="E365">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F365">
         <v>5</v>
@@ -7766,7 +8476,7 @@
         <v>3</v>
       </c>
       <c r="E366">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F366">
         <v>2</v>
@@ -7786,7 +8496,7 @@
         <v>2</v>
       </c>
       <c r="E367">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F367">
         <v>4</v>
@@ -7806,7 +8516,7 @@
         <v>1</v>
       </c>
       <c r="E368">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F368">
         <v>3</v>
@@ -7814,7 +8524,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -7826,7 +8536,7 @@
         <v>3</v>
       </c>
       <c r="E369">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F369">
         <v>2</v>
@@ -7846,7 +8556,7 @@
         <v>3</v>
       </c>
       <c r="E370">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F370">
         <v>3</v>
@@ -7866,7 +8576,7 @@
         <v>3</v>
       </c>
       <c r="E371">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F371">
         <v>6</v>
@@ -7886,7 +8596,7 @@
         <v>5</v>
       </c>
       <c r="E372">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F372">
         <v>3</v>
@@ -7906,7 +8616,7 @@
         <v>1</v>
       </c>
       <c r="E373">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F373">
         <v>2</v>
@@ -7946,7 +8656,7 @@
         <v>3</v>
       </c>
       <c r="E375">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F375">
         <v>3</v>
@@ -7966,7 +8676,7 @@
         <v>3</v>
       </c>
       <c r="E376">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F376">
         <v>3</v>
@@ -7986,7 +8696,7 @@
         <v>1</v>
       </c>
       <c r="E377">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F377">
         <v>2</v>
@@ -8006,7 +8716,7 @@
         <v>2</v>
       </c>
       <c r="E378">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F378">
         <v>6</v>
@@ -8014,7 +8724,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -8026,7 +8736,7 @@
         <v>3</v>
       </c>
       <c r="E379">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F379">
         <v>4</v>
@@ -8046,7 +8756,7 @@
         <v>1</v>
       </c>
       <c r="E380">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F380">
         <v>3</v>
@@ -8054,7 +8764,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -8066,7 +8776,7 @@
         <v>1</v>
       </c>
       <c r="E381">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F381">
         <v>4</v>
@@ -8074,7 +8784,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -8086,7 +8796,7 @@
         <v>1</v>
       </c>
       <c r="E382">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F382">
         <v>3</v>
@@ -8094,7 +8804,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="B383">
         <v>2</v>
@@ -8106,7 +8816,7 @@
         <v>1</v>
       </c>
       <c r="E383">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F383">
         <v>4</v>
@@ -8114,7 +8824,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="B384">
         <v>2</v>
@@ -8126,7 +8836,7 @@
         <v>2</v>
       </c>
       <c r="E384">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F384">
         <v>3</v>
@@ -8134,7 +8844,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="B385">
         <v>2</v>
@@ -8146,7 +8856,7 @@
         <v>2</v>
       </c>
       <c r="E385">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F385">
         <v>6</v>
@@ -8154,7 +8864,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="B386">
         <v>2</v>
@@ -8174,7 +8884,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="B387">
         <v>2</v>
@@ -8194,7 +8904,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -8206,7 +8916,7 @@
         <v>4</v>
       </c>
       <c r="E388">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F388">
         <v>4</v>
@@ -8214,7 +8924,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="B389">
         <v>2</v>
@@ -8226,7 +8936,7 @@
         <v>3</v>
       </c>
       <c r="E389">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F389">
         <v>3</v>
@@ -8234,7 +8944,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -8246,7 +8956,7 @@
         <v>1</v>
       </c>
       <c r="E390">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F390">
         <v>3</v>
@@ -8266,7 +8976,7 @@
         <v>3</v>
       </c>
       <c r="E391">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F391">
         <v>3</v>
@@ -8286,7 +8996,7 @@
         <v>2</v>
       </c>
       <c r="E392">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F392">
         <v>3</v>
@@ -8306,7 +9016,7 @@
         <v>2</v>
       </c>
       <c r="E393">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F393">
         <v>2</v>
@@ -8326,7 +9036,7 @@
         <v>2</v>
       </c>
       <c r="E394">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F394">
         <v>2</v>
@@ -8346,7 +9056,7 @@
         <v>2</v>
       </c>
       <c r="E395">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F395">
         <v>2</v>
@@ -8366,7 +9076,7 @@
         <v>1</v>
       </c>
       <c r="E396">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F396">
         <v>5</v>
@@ -8406,7 +9116,7 @@
         <v>3</v>
       </c>
       <c r="E398">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F398">
         <v>4</v>
@@ -8414,7 +9124,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -8426,7 +9136,7 @@
         <v>5</v>
       </c>
       <c r="E399">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F399">
         <v>4</v>
@@ -8446,7 +9156,7 @@
         <v>4</v>
       </c>
       <c r="E400">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F400">
         <v>5</v>
@@ -8466,7 +9176,7 @@
         <v>2</v>
       </c>
       <c r="E401">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F401">
         <v>2</v>
@@ -8526,7 +9236,7 @@
         <v>3</v>
       </c>
       <c r="E404">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F404">
         <v>4</v>
@@ -8546,7 +9256,7 @@
         <v>3</v>
       </c>
       <c r="E405">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F405">
         <v>3</v>
@@ -8566,7 +9276,7 @@
         <v>4</v>
       </c>
       <c r="E406">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F406">
         <v>3</v>
@@ -8586,7 +9296,7 @@
         <v>1</v>
       </c>
       <c r="E407">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F407">
         <v>4</v>
@@ -8606,7 +9316,7 @@
         <v>3</v>
       </c>
       <c r="E408">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F408">
         <v>2</v>
@@ -8614,7 +9324,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -8626,7 +9336,7 @@
         <v>3</v>
       </c>
       <c r="E409">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F409">
         <v>4</v>
@@ -8646,7 +9356,7 @@
         <v>2</v>
       </c>
       <c r="E410">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F410">
         <v>3</v>
@@ -8666,7 +9376,7 @@
         <v>1</v>
       </c>
       <c r="E411">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F411">
         <v>3</v>
@@ -8686,7 +9396,7 @@
         <v>5</v>
       </c>
       <c r="E412">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F412">
         <v>4</v>
@@ -8706,7 +9416,7 @@
         <v>2</v>
       </c>
       <c r="E413">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F413">
         <v>3</v>
@@ -8726,7 +9436,7 @@
         <v>1</v>
       </c>
       <c r="E414">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F414">
         <v>3</v>
@@ -8746,7 +9456,7 @@
         <v>2</v>
       </c>
       <c r="E415">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F415">
         <v>6</v>
@@ -8766,7 +9476,7 @@
         <v>1</v>
       </c>
       <c r="E416">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F416">
         <v>5</v>
@@ -8786,7 +9496,7 @@
         <v>2</v>
       </c>
       <c r="E417">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F417">
         <v>4</v>
@@ -8806,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="E418">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F418">
         <v>3</v>
@@ -8814,7 +9524,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -8826,7 +9536,7 @@
         <v>3</v>
       </c>
       <c r="E419">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F419">
         <v>6</v>
@@ -8846,7 +9556,7 @@
         <v>2</v>
       </c>
       <c r="E420">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F420">
         <v>4</v>
@@ -8866,7 +9576,7 @@
         <v>2</v>
       </c>
       <c r="E421">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F421">
         <v>3</v>
@@ -8886,7 +9596,7 @@
         <v>2</v>
       </c>
       <c r="E422">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F422">
         <v>4</v>
@@ -8906,7 +9616,7 @@
         <v>3</v>
       </c>
       <c r="E423">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F423">
         <v>2</v>
@@ -8926,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="E424">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F424">
         <v>3</v>
@@ -8946,7 +9656,7 @@
         <v>2</v>
       </c>
       <c r="E425">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F425">
         <v>4</v>
@@ -8966,7 +9676,7 @@
         <v>2</v>
       </c>
       <c r="E426">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F426">
         <v>3</v>
@@ -8986,7 +9696,7 @@
         <v>2</v>
       </c>
       <c r="E427">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F427">
         <v>4</v>
@@ -9014,7 +9724,7 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -9026,7 +9736,7 @@
         <v>1</v>
       </c>
       <c r="E429">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F429">
         <v>2</v>
@@ -9046,7 +9756,7 @@
         <v>3</v>
       </c>
       <c r="E430">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F430">
         <v>4</v>
@@ -9066,7 +9776,7 @@
         <v>3</v>
       </c>
       <c r="E431">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F431">
         <v>3</v>
@@ -9086,7 +9796,7 @@
         <v>3</v>
       </c>
       <c r="E432">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F432">
         <v>3</v>
@@ -9106,7 +9816,7 @@
         <v>2</v>
       </c>
       <c r="E433">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F433">
         <v>6</v>
@@ -9126,7 +9836,7 @@
         <v>3</v>
       </c>
       <c r="E434">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F434">
         <v>3</v>
@@ -9146,7 +9856,7 @@
         <v>2</v>
       </c>
       <c r="E435">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F435">
         <v>2</v>
@@ -9166,7 +9876,7 @@
         <v>3</v>
       </c>
       <c r="E436">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F436">
         <v>4</v>
@@ -9186,7 +9896,7 @@
         <v>2</v>
       </c>
       <c r="E437">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F437">
         <v>3</v>
@@ -9214,7 +9924,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -9226,7 +9936,7 @@
         <v>1</v>
       </c>
       <c r="E439">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F439">
         <v>2</v>
@@ -9246,7 +9956,7 @@
         <v>3</v>
       </c>
       <c r="E440">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F440">
         <v>4</v>
@@ -9266,7 +9976,7 @@
         <v>1</v>
       </c>
       <c r="E441">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F441">
         <v>5</v>
@@ -9286,7 +9996,7 @@
         <v>2</v>
       </c>
       <c r="E442">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F442">
         <v>3</v>
@@ -9306,7 +10016,7 @@
         <v>2</v>
       </c>
       <c r="E443">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F443">
         <v>4</v>
@@ -9346,7 +10056,7 @@
         <v>3</v>
       </c>
       <c r="E445">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F445">
         <v>2</v>
@@ -9386,7 +10096,7 @@
         <v>2</v>
       </c>
       <c r="E447">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F447">
         <v>4</v>
@@ -9406,7 +10116,7 @@
         <v>3</v>
       </c>
       <c r="E448">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F448">
         <v>4</v>
@@ -9414,7 +10124,7 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B449">
         <v>2</v>
@@ -9426,7 +10136,7 @@
         <v>4</v>
       </c>
       <c r="E449">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F449">
         <v>3</v>
@@ -9446,7 +10156,7 @@
         <v>2</v>
       </c>
       <c r="E450">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F450">
         <v>3</v>
@@ -9466,7 +10176,7 @@
         <v>3</v>
       </c>
       <c r="E451">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F451">
         <v>5</v>
@@ -9486,7 +10196,7 @@
         <v>4</v>
       </c>
       <c r="E452">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F452">
         <v>4</v>
@@ -9506,7 +10216,7 @@
         <v>3</v>
       </c>
       <c r="E453">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F453">
         <v>4</v>
@@ -9526,7 +10236,7 @@
         <v>2</v>
       </c>
       <c r="E454">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F454">
         <v>3</v>
@@ -9566,7 +10276,7 @@
         <v>4</v>
       </c>
       <c r="E456">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F456">
         <v>3</v>
@@ -9586,7 +10296,7 @@
         <v>1</v>
       </c>
       <c r="E457">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F457">
         <v>3</v>
@@ -9606,7 +10316,7 @@
         <v>2</v>
       </c>
       <c r="E458">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F458">
         <v>3</v>
@@ -9614,7 +10324,7 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -9626,7 +10336,7 @@
         <v>4</v>
       </c>
       <c r="E459">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F459">
         <v>4</v>
@@ -9646,7 +10356,7 @@
         <v>2</v>
       </c>
       <c r="E460">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F460">
         <v>2</v>
@@ -9686,7 +10396,7 @@
         <v>3</v>
       </c>
       <c r="E462">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F462">
         <v>3</v>
@@ -9726,7 +10436,7 @@
         <v>4</v>
       </c>
       <c r="E464">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F464">
         <v>6</v>
@@ -9746,7 +10456,7 @@
         <v>2</v>
       </c>
       <c r="E465">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F465">
         <v>2</v>
@@ -9766,7 +10476,7 @@
         <v>2</v>
       </c>
       <c r="E466">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F466">
         <v>2</v>
@@ -9806,7 +10516,7 @@
         <v>3</v>
       </c>
       <c r="E468">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F468">
         <v>3</v>
@@ -9814,7 +10524,7 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B469">
         <v>2</v>
@@ -9826,7 +10536,7 @@
         <v>4</v>
       </c>
       <c r="E469">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F469">
         <v>5</v>
@@ -9846,7 +10556,7 @@
         <v>3</v>
       </c>
       <c r="E470">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F470">
         <v>4</v>
@@ -9886,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="E472">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F472">
         <v>2</v>
@@ -9926,7 +10636,7 @@
         <v>3</v>
       </c>
       <c r="E474">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F474">
         <v>3</v>
@@ -9946,7 +10656,7 @@
         <v>3</v>
       </c>
       <c r="E475">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F475">
         <v>2</v>
@@ -9986,7 +10696,7 @@
         <v>3</v>
       </c>
       <c r="E477">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F477">
         <v>3</v>
@@ -10014,7 +10724,7 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B479">
         <v>2</v>
@@ -10026,7 +10736,7 @@
         <v>3</v>
       </c>
       <c r="E479">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F479">
         <v>2</v>
@@ -10054,7 +10764,7 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -10066,7 +10776,7 @@
         <v>1</v>
       </c>
       <c r="E481">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F481">
         <v>6</v>
@@ -10074,7 +10784,7 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="B482">
         <v>1</v>
@@ -10086,7 +10796,7 @@
         <v>3</v>
       </c>
       <c r="E482">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F482">
         <v>4</v>
@@ -10094,7 +10804,7 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -10114,7 +10824,7 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -10126,7 +10836,7 @@
         <v>2</v>
       </c>
       <c r="E484">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F484">
         <v>3</v>
@@ -10134,7 +10844,7 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -10146,7 +10856,7 @@
         <v>5</v>
       </c>
       <c r="E485">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F485">
         <v>3</v>
@@ -10154,7 +10864,7 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="B486">
         <v>2</v>
@@ -10166,7 +10876,7 @@
         <v>3</v>
       </c>
       <c r="E486">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F486">
         <v>2</v>
@@ -10174,7 +10884,7 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -10186,7 +10896,7 @@
         <v>2</v>
       </c>
       <c r="E487">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F487">
         <v>3</v>
@@ -10194,7 +10904,7 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="B488">
         <v>2</v>
@@ -10214,7 +10924,7 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>488</v>
+        <v>455</v>
       </c>
       <c r="B489">
         <v>2</v>
@@ -10226,7 +10936,7 @@
         <v>3</v>
       </c>
       <c r="E489">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F489">
         <v>3</v>
@@ -10234,7 +10944,7 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -10266,7 +10976,7 @@
         <v>3</v>
       </c>
       <c r="E491">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F491">
         <v>5</v>
@@ -10286,7 +10996,7 @@
         <v>2</v>
       </c>
       <c r="E492">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F492">
         <v>4</v>
@@ -10306,7 +11016,7 @@
         <v>3</v>
       </c>
       <c r="E493">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F493">
         <v>5</v>
@@ -10326,7 +11036,7 @@
         <v>2</v>
       </c>
       <c r="E494">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F494">
         <v>3</v>
@@ -10366,7 +11076,7 @@
         <v>3</v>
       </c>
       <c r="E496">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F496">
         <v>4</v>
@@ -10406,7 +11116,7 @@
         <v>1</v>
       </c>
       <c r="E498">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F498">
         <v>2</v>
@@ -10414,7 +11124,7 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B499">
         <v>1</v>
@@ -10426,7 +11136,7 @@
         <v>5</v>
       </c>
       <c r="E499">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F499">
         <v>3</v>
@@ -10446,7 +11156,7 @@
         <v>1</v>
       </c>
       <c r="E500">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F500">
         <v>3</v>
@@ -10486,7 +11196,7 @@
         <v>3</v>
       </c>
       <c r="E502">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F502">
         <v>2</v>
@@ -10506,7 +11216,7 @@
         <v>2</v>
       </c>
       <c r="E503">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F503">
         <v>2</v>
@@ -10526,7 +11236,7 @@
         <v>2</v>
       </c>
       <c r="E504">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F504">
         <v>5</v>
@@ -10546,7 +11256,7 @@
         <v>3</v>
       </c>
       <c r="E505">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F505">
         <v>3</v>
@@ -10566,7 +11276,7 @@
         <v>2</v>
       </c>
       <c r="E506">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F506">
         <v>3</v>
@@ -10586,7 +11296,7 @@
         <v>3</v>
       </c>
       <c r="E507">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F507">
         <v>2</v>
@@ -10606,7 +11316,7 @@
         <v>3</v>
       </c>
       <c r="E508">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F508">
         <v>4</v>
@@ -10614,7 +11324,7 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B509">
         <v>2</v>
@@ -10626,7 +11336,7 @@
         <v>3</v>
       </c>
       <c r="E509">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F509">
         <v>2</v>
@@ -10646,7 +11356,7 @@
         <v>2</v>
       </c>
       <c r="E510">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F510">
         <v>3</v>
@@ -10666,7 +11376,7 @@
         <v>3</v>
       </c>
       <c r="E511">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F511">
         <v>2</v>
@@ -10706,7 +11416,7 @@
         <v>5</v>
       </c>
       <c r="E513">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F513">
         <v>5</v>
@@ -10726,7 +11436,7 @@
         <v>4</v>
       </c>
       <c r="E514">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F514">
         <v>5</v>
@@ -10766,7 +11476,7 @@
         <v>5</v>
       </c>
       <c r="E516">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F516">
         <v>3</v>
@@ -10786,7 +11496,7 @@
         <v>3</v>
       </c>
       <c r="E517">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F517">
         <v>4</v>
@@ -10806,7 +11516,7 @@
         <v>1</v>
       </c>
       <c r="E518">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F518">
         <v>2</v>
@@ -10814,7 +11524,7 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B519">
         <v>2</v>
@@ -10826,7 +11536,7 @@
         <v>4</v>
       </c>
       <c r="E519">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F519">
         <v>6</v>
@@ -10846,7 +11556,7 @@
         <v>1</v>
       </c>
       <c r="E520">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F520">
         <v>4</v>
@@ -10866,7 +11576,7 @@
         <v>4</v>
       </c>
       <c r="E521">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F521">
         <v>5</v>
@@ -10886,7 +11596,7 @@
         <v>3</v>
       </c>
       <c r="E522">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F522">
         <v>2</v>
@@ -10906,7 +11616,7 @@
         <v>3</v>
       </c>
       <c r="E523">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F523">
         <v>2</v>
@@ -10946,7 +11656,7 @@
         <v>5</v>
       </c>
       <c r="E525">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F525">
         <v>4</v>
@@ -10966,7 +11676,7 @@
         <v>5</v>
       </c>
       <c r="E526">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F526">
         <v>5</v>
@@ -10986,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="E527">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F527">
         <v>3</v>
@@ -11014,7 +11724,7 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B529">
         <v>2</v>
@@ -11046,7 +11756,7 @@
         <v>3</v>
       </c>
       <c r="E530">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F530">
         <v>3</v>
@@ -11066,7 +11776,7 @@
         <v>4</v>
       </c>
       <c r="E531">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F531">
         <v>5</v>
@@ -11086,7 +11796,7 @@
         <v>3</v>
       </c>
       <c r="E532">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F532">
         <v>2</v>
@@ -11106,7 +11816,7 @@
         <v>3</v>
       </c>
       <c r="E533">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F533">
         <v>2</v>
@@ -11126,7 +11836,7 @@
         <v>3</v>
       </c>
       <c r="E534">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F534">
         <v>4</v>
@@ -11146,7 +11856,7 @@
         <v>5</v>
       </c>
       <c r="E535">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F535">
         <v>3</v>
@@ -11166,7 +11876,7 @@
         <v>1</v>
       </c>
       <c r="E536">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F536">
         <v>3</v>
@@ -11186,7 +11896,7 @@
         <v>3</v>
       </c>
       <c r="E537">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F537">
         <v>4</v>
@@ -11206,7 +11916,7 @@
         <v>1</v>
       </c>
       <c r="E538">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F538">
         <v>4</v>
@@ -11214,7 +11924,7 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B539">
         <v>2</v>
@@ -11226,7 +11936,7 @@
         <v>5</v>
       </c>
       <c r="E539">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F539">
         <v>2</v>
@@ -11246,7 +11956,7 @@
         <v>3</v>
       </c>
       <c r="E540">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F540">
         <v>6</v>
@@ -11266,7 +11976,7 @@
         <v>2</v>
       </c>
       <c r="E541">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F541">
         <v>3</v>
@@ -11286,7 +11996,7 @@
         <v>1</v>
       </c>
       <c r="E542">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F542">
         <v>2</v>
@@ -11306,7 +12016,7 @@
         <v>2</v>
       </c>
       <c r="E543">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F543">
         <v>3</v>
@@ -11326,7 +12036,7 @@
         <v>2</v>
       </c>
       <c r="E544">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F544">
         <v>4</v>
@@ -11346,7 +12056,7 @@
         <v>3</v>
       </c>
       <c r="E545">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F545">
         <v>3</v>
@@ -11366,7 +12076,7 @@
         <v>2</v>
       </c>
       <c r="E546">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F546">
         <v>3</v>
@@ -11386,7 +12096,7 @@
         <v>2</v>
       </c>
       <c r="E547">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F547">
         <v>3</v>
@@ -11414,7 +12124,7 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -11426,7 +12136,7 @@
         <v>2</v>
       </c>
       <c r="E549">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F549">
         <v>3</v>
@@ -11466,7 +12176,7 @@
         <v>2</v>
       </c>
       <c r="E551">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F551">
         <v>3</v>
@@ -11486,7 +12196,7 @@
         <v>2</v>
       </c>
       <c r="E552">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F552">
         <v>5</v>
@@ -11506,7 +12216,7 @@
         <v>2</v>
       </c>
       <c r="E553">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F553">
         <v>2</v>
@@ -11526,7 +12236,7 @@
         <v>3</v>
       </c>
       <c r="E554">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F554">
         <v>3</v>
@@ -11546,7 +12256,7 @@
         <v>4</v>
       </c>
       <c r="E555">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F555">
         <v>5</v>
@@ -11566,7 +12276,7 @@
         <v>2</v>
       </c>
       <c r="E556">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F556">
         <v>5</v>
@@ -11586,7 +12296,7 @@
         <v>2</v>
       </c>
       <c r="E557">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F557">
         <v>3</v>
@@ -11614,7 +12324,7 @@
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B559">
         <v>2</v>
@@ -11626,7 +12336,7 @@
         <v>4</v>
       </c>
       <c r="E559">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F559">
         <v>4</v>
@@ -11726,7 +12436,7 @@
         <v>2</v>
       </c>
       <c r="E564">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F564">
         <v>3</v>
@@ -11746,7 +12456,7 @@
         <v>2</v>
       </c>
       <c r="E565">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F565">
         <v>3</v>
@@ -11806,7 +12516,7 @@
         <v>4</v>
       </c>
       <c r="E568">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F568">
         <v>5</v>
@@ -11814,7 +12524,7 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B569">
         <v>2</v>
@@ -11866,7 +12576,7 @@
         <v>4</v>
       </c>
       <c r="E571">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F571">
         <v>4</v>
@@ -11886,7 +12596,7 @@
         <v>4</v>
       </c>
       <c r="E572">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F572">
         <v>3</v>
@@ -11906,7 +12616,7 @@
         <v>4</v>
       </c>
       <c r="E573">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F573">
         <v>4</v>
@@ -11966,7 +12676,7 @@
         <v>4</v>
       </c>
       <c r="E576">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F576">
         <v>2</v>
@@ -12014,7 +12724,7 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B579">
         <v>2</v>
@@ -12026,7 +12736,7 @@
         <v>4</v>
       </c>
       <c r="E579">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F579">
         <v>4</v>
@@ -12054,7 +12764,7 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="B581">
         <v>2</v>
@@ -12066,7 +12776,7 @@
         <v>5</v>
       </c>
       <c r="E581">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F581">
         <v>4</v>
@@ -12074,7 +12784,7 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B582">
         <v>2</v>
@@ -12086,7 +12796,7 @@
         <v>4</v>
       </c>
       <c r="E582">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F582">
         <v>4</v>
@@ -12094,7 +12804,7 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
-        <v>582</v>
+        <v>552</v>
       </c>
       <c r="B583">
         <v>1</v>
@@ -12106,7 +12816,7 @@
         <v>2</v>
       </c>
       <c r="E583">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F583">
         <v>4</v>
@@ -12114,7 +12824,7 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
-        <v>583</v>
+        <v>553</v>
       </c>
       <c r="B584">
         <v>1</v>
@@ -12134,7 +12844,7 @@
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="B585">
         <v>1</v>
@@ -12154,7 +12864,7 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="B586">
         <v>2</v>
@@ -12174,7 +12884,7 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="B587">
         <v>2</v>
@@ -12194,7 +12904,7 @@
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="B588">
         <v>1</v>
@@ -12214,7 +12924,7 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
-        <v>588</v>
+        <v>555</v>
       </c>
       <c r="B589">
         <v>1</v>
@@ -12234,7 +12944,7 @@
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>589</v>
+        <v>559</v>
       </c>
       <c r="B590">
         <v>2</v>
@@ -12246,7 +12956,7 @@
         <v>4</v>
       </c>
       <c r="E590">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F590">
         <v>4</v>
@@ -12266,7 +12976,7 @@
         <v>4</v>
       </c>
       <c r="E591">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F591">
         <v>4</v>
@@ -12306,7 +13016,7 @@
         <v>3</v>
       </c>
       <c r="E593">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F593">
         <v>4</v>
@@ -12366,7 +13076,7 @@
         <v>3</v>
       </c>
       <c r="E596">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F596">
         <v>3</v>
@@ -12414,7 +13124,7 @@
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B599">
         <v>2</v>
@@ -12486,7 +13196,7 @@
         <v>4</v>
       </c>
       <c r="E602">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F602">
         <v>4</v>
@@ -12546,7 +13256,7 @@
         <v>4</v>
       </c>
       <c r="E605">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F605">
         <v>4</v>
@@ -12606,7 +13316,7 @@
         <v>4</v>
       </c>
       <c r="E608">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F608">
         <v>3</v>
@@ -12614,7 +13324,7 @@
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B609">
         <v>1</v>
@@ -12666,7 +13376,7 @@
         <v>4</v>
       </c>
       <c r="E611">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F611">
         <v>2</v>
@@ -12686,7 +13396,7 @@
         <v>4</v>
       </c>
       <c r="E612">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F612">
         <v>4</v>
@@ -12726,7 +13436,7 @@
         <v>5</v>
       </c>
       <c r="E614">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F614">
         <v>3</v>
@@ -12766,7 +13476,7 @@
         <v>4</v>
       </c>
       <c r="E616">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F616">
         <v>2</v>
@@ -12814,7 +13524,7 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B619">
         <v>1</v>
@@ -12826,7 +13536,7 @@
         <v>5</v>
       </c>
       <c r="E619">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F619">
         <v>2</v>
@@ -12846,7 +13556,7 @@
         <v>3</v>
       </c>
       <c r="E620">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F620">
         <v>3</v>
@@ -12866,7 +13576,7 @@
         <v>2</v>
       </c>
       <c r="E621">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F621">
         <v>3</v>
@@ -12886,7 +13596,7 @@
         <v>4</v>
       </c>
       <c r="E622">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F622">
         <v>6</v>
@@ -12946,7 +13656,7 @@
         <v>4</v>
       </c>
       <c r="E625">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F625">
         <v>4</v>
@@ -12986,7 +13696,7 @@
         <v>4</v>
       </c>
       <c r="E627">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F627">
         <v>4</v>
@@ -13006,7 +13716,7 @@
         <v>3</v>
       </c>
       <c r="E628">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F628">
         <v>4</v>
@@ -13014,7 +13724,7 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -13026,7 +13736,7 @@
         <v>4</v>
       </c>
       <c r="E629">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F629">
         <v>5</v>
@@ -13046,7 +13756,7 @@
         <v>4</v>
       </c>
       <c r="E630">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F630">
         <v>3</v>
@@ -13066,7 +13776,7 @@
         <v>4</v>
       </c>
       <c r="E631">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F631">
         <v>4</v>
@@ -13086,7 +13796,7 @@
         <v>3</v>
       </c>
       <c r="E632">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F632">
         <v>3</v>
@@ -13186,7 +13896,7 @@
         <v>3</v>
       </c>
       <c r="E637">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F637">
         <v>2</v>
@@ -13206,7 +13916,7 @@
         <v>4</v>
       </c>
       <c r="E638">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F638">
         <v>3</v>
@@ -13214,7 +13924,7 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B639">
         <v>1</v>
@@ -13226,7 +13936,7 @@
         <v>4</v>
       </c>
       <c r="E639">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F639">
         <v>5</v>
@@ -13306,7 +14016,7 @@
         <v>5</v>
       </c>
       <c r="E643">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F643">
         <v>6</v>
@@ -13386,7 +14096,7 @@
         <v>4</v>
       </c>
       <c r="E647">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F647">
         <v>4</v>
@@ -13414,7 +14124,7 @@
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B649">
         <v>2</v>
@@ -13446,7 +14156,7 @@
         <v>4</v>
       </c>
       <c r="E650">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F650">
         <v>3</v>
@@ -13486,7 +14196,7 @@
         <v>4</v>
       </c>
       <c r="E652">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F652">
         <v>4</v>
@@ -13526,7 +14236,7 @@
         <v>3</v>
       </c>
       <c r="E654">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F654">
         <v>4</v>
@@ -13566,7 +14276,7 @@
         <v>4</v>
       </c>
       <c r="E656">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F656">
         <v>5</v>
@@ -13586,7 +14296,7 @@
         <v>4</v>
       </c>
       <c r="E657">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F657">
         <v>3</v>
@@ -13606,7 +14316,7 @@
         <v>3</v>
       </c>
       <c r="E658">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F658">
         <v>4</v>
@@ -13614,7 +14324,7 @@
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B659">
         <v>1</v>
@@ -13666,7 +14376,7 @@
         <v>5</v>
       </c>
       <c r="E661">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F661">
         <v>4</v>
@@ -13766,7 +14476,7 @@
         <v>5</v>
       </c>
       <c r="E666">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F666">
         <v>2</v>
@@ -13814,7 +14524,7 @@
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B669">
         <v>2</v>
@@ -13886,7 +14596,7 @@
         <v>4</v>
       </c>
       <c r="E672">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F672">
         <v>6</v>
@@ -13966,7 +14676,7 @@
         <v>4</v>
       </c>
       <c r="E676">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F676">
         <v>4</v>
@@ -14014,7 +14724,7 @@
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B679">
         <v>2</v>
@@ -14054,7 +14764,7 @@
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
-        <v>680</v>
+        <v>650</v>
       </c>
       <c r="B681">
         <v>2</v>
@@ -14066,7 +14776,7 @@
         <v>4</v>
       </c>
       <c r="E681">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F681">
         <v>6</v>
@@ -14074,7 +14784,7 @@
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
-        <v>681</v>
+        <v>651</v>
       </c>
       <c r="B682">
         <v>2</v>
@@ -14086,7 +14796,7 @@
         <v>2</v>
       </c>
       <c r="E682">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F682">
         <v>3</v>
@@ -14094,7 +14804,7 @@
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="B683">
         <v>1</v>
@@ -14114,7 +14824,7 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
-        <v>683</v>
+        <v>653</v>
       </c>
       <c r="B684">
         <v>1</v>
@@ -14134,7 +14844,7 @@
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
-        <v>684</v>
+        <v>654</v>
       </c>
       <c r="B685">
         <v>1</v>
@@ -14146,7 +14856,7 @@
         <v>1</v>
       </c>
       <c r="E685">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F685">
         <v>1</v>
@@ -14154,7 +14864,7 @@
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
-        <v>685</v>
+        <v>655</v>
       </c>
       <c r="B686">
         <v>2</v>
@@ -14166,7 +14876,7 @@
         <v>3</v>
       </c>
       <c r="E686">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F686">
         <v>2</v>
@@ -14174,7 +14884,7 @@
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
-        <v>686</v>
+        <v>656</v>
       </c>
       <c r="B687">
         <v>2</v>
@@ -14194,7 +14904,7 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
-        <v>687</v>
+        <v>657</v>
       </c>
       <c r="B688">
         <v>2</v>
@@ -14206,7 +14916,7 @@
         <v>2</v>
       </c>
       <c r="E688">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F688">
         <v>1</v>
@@ -14214,7 +14924,7 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
-        <v>688</v>
+        <v>655</v>
       </c>
       <c r="B689">
         <v>1</v>
@@ -14226,7 +14936,7 @@
         <v>2</v>
       </c>
       <c r="E689">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F689">
         <v>2</v>
@@ -14234,7 +14944,7 @@
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
-        <v>689</v>
+        <v>659</v>
       </c>
       <c r="B690">
         <v>1</v>
@@ -14266,7 +14976,7 @@
         <v>4</v>
       </c>
       <c r="E691">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F691">
         <v>3</v>
@@ -14306,7 +15016,7 @@
         <v>4</v>
       </c>
       <c r="E693">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F693">
         <v>3</v>
@@ -14386,7 +15096,7 @@
         <v>4</v>
       </c>
       <c r="E697">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F697">
         <v>3</v>
@@ -14414,7 +15124,7 @@
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B699">
         <v>2</v>
@@ -14426,7 +15136,7 @@
         <v>4</v>
       </c>
       <c r="E699">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F699">
         <v>4</v>
@@ -14466,7 +15176,7 @@
         <v>4</v>
       </c>
       <c r="E701">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F701">
         <v>4</v>
@@ -14486,7 +15196,7 @@
         <v>4</v>
       </c>
       <c r="E702">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F702">
         <v>4</v>
@@ -14506,7 +15216,7 @@
         <v>5</v>
       </c>
       <c r="E703">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F703">
         <v>5</v>
@@ -14526,7 +15236,7 @@
         <v>4</v>
       </c>
       <c r="E704">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F704">
         <v>4</v>
@@ -14566,7 +15276,7 @@
         <v>4</v>
       </c>
       <c r="E706">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F706">
         <v>6</v>
@@ -14586,7 +15296,7 @@
         <v>4</v>
       </c>
       <c r="E707">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F707">
         <v>4</v>
@@ -14614,7 +15324,7 @@
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B709">
         <v>1</v>
@@ -14626,7 +15336,7 @@
         <v>4</v>
       </c>
       <c r="E709">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F709">
         <v>5</v>
@@ -14686,10 +15396,1761 @@
         <v>4</v>
       </c>
       <c r="E712">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F712">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F712" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64A590-AEB9-48A6-88F6-31B492852A86}">
+  <dimension ref="A1:C205"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C205"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>62</v>
+      </c>
+      <c r="C110" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>124</v>
+      </c>
+      <c r="C113" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>126</v>
+      </c>
+      <c r="C114" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>128</v>
+      </c>
+      <c r="C115" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>130</v>
+      </c>
+      <c r="C116" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>132</v>
+      </c>
+      <c r="C117" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>134</v>
+      </c>
+      <c r="B118" t="s">
+        <v>135</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>62</v>
+      </c>
+      <c r="C125" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>141</v>
+      </c>
+      <c r="B126" t="s">
+        <v>142</v>
+      </c>
+      <c r="C126" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>123</v>
+      </c>
+      <c r="C127" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>144</v>
+      </c>
+      <c r="C128" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>146</v>
+      </c>
+      <c r="C129" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>148</v>
+      </c>
+      <c r="C130" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>150</v>
+      </c>
+      <c r="C131" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>152</v>
+      </c>
+      <c r="C132" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>154</v>
+      </c>
+      <c r="C133" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>156</v>
+      </c>
+      <c r="C134" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>158</v>
+      </c>
+      <c r="C135" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>160</v>
+      </c>
+      <c r="C136" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>162</v>
+      </c>
+      <c r="C137" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>164</v>
+      </c>
+      <c r="B138" t="s">
+        <v>165</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>62</v>
+      </c>
+      <c r="C145" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>59</v>
+      </c>
+      <c r="C146" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>170</v>
+      </c>
+      <c r="C147" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>171</v>
+      </c>
+      <c r="B148" t="s">
+        <v>172</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>177</v>
+      </c>
+      <c r="B155" t="s">
+        <v>178</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>15</v>
+      </c>
+      <c r="C159" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>62</v>
+      </c>
+      <c r="C162" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>59</v>
+      </c>
+      <c r="C163" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>185</v>
+      </c>
+      <c r="B164" t="s">
+        <v>186</v>
+      </c>
+      <c r="C164" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>123</v>
+      </c>
+      <c r="C165" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>124</v>
+      </c>
+      <c r="C166" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>126</v>
+      </c>
+      <c r="C167" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>128</v>
+      </c>
+      <c r="C168" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>130</v>
+      </c>
+      <c r="C169" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>132</v>
+      </c>
+      <c r="C170" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>192</v>
+      </c>
+      <c r="C171" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>194</v>
+      </c>
+      <c r="C172" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>196</v>
+      </c>
+      <c r="C173" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>198</v>
+      </c>
+      <c r="C174" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>200</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>1</v>
+      </c>
+      <c r="B179" t="s">
+        <v>203</v>
+      </c>
+      <c r="C179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>15</v>
+      </c>
+      <c r="C183" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>17</v>
+      </c>
+      <c r="C184" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>2</v>
+      </c>
+      <c r="B185" t="s">
+        <v>208</v>
+      </c>
+      <c r="C185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>17</v>
+      </c>
+      <c r="C190" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>19</v>
+      </c>
+      <c r="C191" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>3</v>
+      </c>
+      <c r="B192" t="s">
+        <v>214</v>
+      </c>
+      <c r="C192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>15</v>
+      </c>
+      <c r="C196" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>17</v>
+      </c>
+      <c r="C197" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>19</v>
+      </c>
+      <c r="C198" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>62</v>
+      </c>
+      <c r="C199" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200" t="s">
+        <v>221</v>
+      </c>
+      <c r="C200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>15</v>
+      </c>
+      <c r="C204" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>17</v>
+      </c>
+      <c r="C205" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/Python-code/data_kmodes.xlsx
+++ b/Python-code/data_kmodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\市调\code\Python-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A533E5E6-0FF5-4B61-B836-56C9299A5362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22029818-C5EE-43F2-BC2F-DB1D5219C3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:F712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1239,7 +1239,7 @@
         <v>4</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1259,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1299,7 +1299,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1319,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1359,7 +1359,7 @@
         <v>3</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1379,7 +1379,7 @@
         <v>6</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1399,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1419,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
         <v>5</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1459,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,7 +1499,7 @@
         <v>3</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1519,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1539,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1579,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1619,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1639,7 +1639,7 @@
         <v>3</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1659,7 +1659,7 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
         <v>5</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1699,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1719,7 +1719,7 @@
         <v>5</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1739,7 +1739,7 @@
         <v>6</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
         <v>3</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1779,7 +1779,7 @@
         <v>5</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1799,7 +1799,7 @@
         <v>4</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1819,7 +1819,7 @@
         <v>3</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1839,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1859,7 +1859,7 @@
         <v>5</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1879,7 +1879,7 @@
         <v>2</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1899,7 +1899,7 @@
         <v>6</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
         <v>4</v>
       </c>
       <c r="F38">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1939,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1959,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1979,7 +1979,7 @@
         <v>3</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1999,7 +1999,7 @@
         <v>5</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2019,7 +2019,7 @@
         <v>4</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2039,7 +2039,7 @@
         <v>6</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2059,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2099,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2119,7 +2119,7 @@
         <v>4</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2139,7 +2139,7 @@
         <v>6</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2159,7 +2159,7 @@
         <v>6</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2179,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2199,7 +2199,7 @@
         <v>2</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2219,7 +2219,7 @@
         <v>6</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2239,7 +2239,7 @@
         <v>2</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2259,7 +2259,7 @@
         <v>2</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2279,7 +2279,7 @@
         <v>4</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2319,7 +2319,7 @@
         <v>2</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2339,7 +2339,7 @@
         <v>4</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2359,7 +2359,7 @@
         <v>5</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2379,7 +2379,7 @@
         <v>6</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2399,7 +2399,7 @@
         <v>6</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2419,7 +2419,7 @@
         <v>3</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2439,7 +2439,7 @@
         <v>2</v>
       </c>
       <c r="F64">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2459,7 +2459,7 @@
         <v>3</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2499,7 +2499,7 @@
         <v>4</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2539,7 +2539,7 @@
         <v>3</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2559,7 +2559,7 @@
         <v>3</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2579,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2599,7 +2599,7 @@
         <v>4</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2619,7 +2619,7 @@
         <v>2</v>
       </c>
       <c r="F73">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2639,7 +2639,7 @@
         <v>5</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2659,7 +2659,7 @@
         <v>5</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2679,7 +2679,7 @@
         <v>3</v>
       </c>
       <c r="F76">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2699,7 +2699,7 @@
         <v>6</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2719,7 +2719,7 @@
         <v>4</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2739,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="F79">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2759,7 +2759,7 @@
         <v>6</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2779,7 +2779,7 @@
         <v>3</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2799,7 +2799,7 @@
         <v>6</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2819,7 +2819,7 @@
         <v>4</v>
       </c>
       <c r="F83">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
         <v>2</v>
       </c>
       <c r="F84">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2879,7 +2879,7 @@
         <v>5</v>
       </c>
       <c r="F86">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2899,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2919,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2939,7 +2939,7 @@
         <v>3</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2959,7 +2959,7 @@
         <v>3</v>
       </c>
       <c r="F90">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2979,7 +2979,7 @@
         <v>6</v>
       </c>
       <c r="F91">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2999,7 +2999,7 @@
         <v>4</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3019,7 +3019,7 @@
         <v>4</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3039,7 +3039,7 @@
         <v>3</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3059,7 +3059,7 @@
         <v>4</v>
       </c>
       <c r="F95">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3079,7 +3079,7 @@
         <v>6</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3099,7 +3099,7 @@
         <v>2</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3119,7 +3119,7 @@
         <v>4</v>
       </c>
       <c r="F98">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3139,7 +3139,7 @@
         <v>4</v>
       </c>
       <c r="F99">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3159,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3179,7 +3179,7 @@
         <v>2</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3199,7 +3199,7 @@
         <v>2</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3219,7 +3219,7 @@
         <v>4</v>
       </c>
       <c r="F103">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3239,7 +3239,7 @@
         <v>4</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3259,7 +3259,7 @@
         <v>5</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3279,7 +3279,7 @@
         <v>5</v>
       </c>
       <c r="F106">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3299,7 +3299,7 @@
         <v>6</v>
       </c>
       <c r="F107">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3319,7 +3319,7 @@
         <v>2</v>
       </c>
       <c r="F108">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3339,7 +3339,7 @@
         <v>5</v>
       </c>
       <c r="F109">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3359,7 +3359,7 @@
         <v>3</v>
       </c>
       <c r="F110">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3379,7 +3379,7 @@
         <v>2</v>
       </c>
       <c r="F111">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3399,7 +3399,7 @@
         <v>4</v>
       </c>
       <c r="F112">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3419,7 +3419,7 @@
         <v>5</v>
       </c>
       <c r="F113">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3439,7 +3439,7 @@
         <v>2</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3459,7 +3459,7 @@
         <v>2</v>
       </c>
       <c r="F115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3479,7 +3479,7 @@
         <v>3</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3499,7 +3499,7 @@
         <v>4</v>
       </c>
       <c r="F117">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3519,7 +3519,7 @@
         <v>4</v>
       </c>
       <c r="F118">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="F119">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3559,7 +3559,7 @@
         <v>4</v>
       </c>
       <c r="F120">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3579,7 +3579,7 @@
         <v>3</v>
       </c>
       <c r="F121">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3599,7 +3599,7 @@
         <v>4</v>
       </c>
       <c r="F122">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3619,7 +3619,7 @@
         <v>6</v>
       </c>
       <c r="F123">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3639,7 +3639,7 @@
         <v>4</v>
       </c>
       <c r="F124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3659,7 +3659,7 @@
         <v>3</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3679,7 +3679,7 @@
         <v>4</v>
       </c>
       <c r="F126">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3699,7 +3699,7 @@
         <v>4</v>
       </c>
       <c r="F127">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3719,7 +3719,7 @@
         <v>2</v>
       </c>
       <c r="F128">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3739,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="F129">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3759,7 +3759,7 @@
         <v>2</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3779,7 +3779,7 @@
         <v>5</v>
       </c>
       <c r="F131">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3799,7 +3799,7 @@
         <v>6</v>
       </c>
       <c r="F132">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3819,7 +3819,7 @@
         <v>6</v>
       </c>
       <c r="F133">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3839,7 +3839,7 @@
         <v>4</v>
       </c>
       <c r="F134">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3859,7 +3859,7 @@
         <v>4</v>
       </c>
       <c r="F135">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3879,7 +3879,7 @@
         <v>6</v>
       </c>
       <c r="F136">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3899,7 +3899,7 @@
         <v>4</v>
       </c>
       <c r="F137">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3919,7 +3919,7 @@
         <v>6</v>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3939,7 +3939,7 @@
         <v>4</v>
       </c>
       <c r="F139">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3959,7 +3959,7 @@
         <v>5</v>
       </c>
       <c r="F140">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3979,7 +3979,7 @@
         <v>3</v>
       </c>
       <c r="F141">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3999,7 +3999,7 @@
         <v>6</v>
       </c>
       <c r="F142">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4019,7 +4019,7 @@
         <v>3</v>
       </c>
       <c r="F143">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4039,7 +4039,7 @@
         <v>6</v>
       </c>
       <c r="F144">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4059,7 +4059,7 @@
         <v>5</v>
       </c>
       <c r="F145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4079,7 +4079,7 @@
         <v>6</v>
       </c>
       <c r="F146">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4099,7 +4099,7 @@
         <v>5</v>
       </c>
       <c r="F147">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4119,7 +4119,7 @@
         <v>2</v>
       </c>
       <c r="F148">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4139,7 +4139,7 @@
         <v>6</v>
       </c>
       <c r="F149">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4159,7 +4159,7 @@
         <v>2</v>
       </c>
       <c r="F150">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4179,7 +4179,7 @@
         <v>4</v>
       </c>
       <c r="F151">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4199,7 +4199,7 @@
         <v>4</v>
       </c>
       <c r="F152">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4219,7 +4219,7 @@
         <v>6</v>
       </c>
       <c r="F153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4239,7 +4239,7 @@
         <v>6</v>
       </c>
       <c r="F154">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4259,7 +4259,7 @@
         <v>6</v>
       </c>
       <c r="F155">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4279,7 +4279,7 @@
         <v>5</v>
       </c>
       <c r="F156">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4299,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="F157">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4319,7 +4319,7 @@
         <v>3</v>
       </c>
       <c r="F158">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4339,7 +4339,7 @@
         <v>4</v>
       </c>
       <c r="F159">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4359,7 +4359,7 @@
         <v>5</v>
       </c>
       <c r="F160">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4379,7 +4379,7 @@
         <v>3</v>
       </c>
       <c r="F161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4399,7 +4399,7 @@
         <v>3</v>
       </c>
       <c r="F162">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4419,7 +4419,7 @@
         <v>5</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4439,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="F164">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4459,7 +4459,7 @@
         <v>3</v>
       </c>
       <c r="F165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4479,7 +4479,7 @@
         <v>3</v>
       </c>
       <c r="F166">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4499,7 +4499,7 @@
         <v>2</v>
       </c>
       <c r="F167">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4519,7 +4519,7 @@
         <v>6</v>
       </c>
       <c r="F168">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4539,7 +4539,7 @@
         <v>6</v>
       </c>
       <c r="F169">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4559,7 +4559,7 @@
         <v>5</v>
       </c>
       <c r="F170">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4579,7 +4579,7 @@
         <v>3</v>
       </c>
       <c r="F171">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4599,7 +4599,7 @@
         <v>4</v>
       </c>
       <c r="F172">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4619,7 +4619,7 @@
         <v>4</v>
       </c>
       <c r="F173">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4639,7 +4639,7 @@
         <v>6</v>
       </c>
       <c r="F174">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4659,7 +4659,7 @@
         <v>5</v>
       </c>
       <c r="F175">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4679,7 +4679,7 @@
         <v>6</v>
       </c>
       <c r="F176">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4699,7 +4699,7 @@
         <v>2</v>
       </c>
       <c r="F177">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4719,7 +4719,7 @@
         <v>5</v>
       </c>
       <c r="F178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4739,7 +4739,7 @@
         <v>6</v>
       </c>
       <c r="F179">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4759,7 +4759,7 @@
         <v>6</v>
       </c>
       <c r="F180">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4779,7 +4779,7 @@
         <v>4</v>
       </c>
       <c r="F181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4799,7 +4799,7 @@
         <v>4</v>
       </c>
       <c r="F182">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4819,7 +4819,7 @@
         <v>5</v>
       </c>
       <c r="F183">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4839,7 +4839,7 @@
         <v>3</v>
       </c>
       <c r="F184">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -4859,7 +4859,7 @@
         <v>4</v>
       </c>
       <c r="F185">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -4879,7 +4879,7 @@
         <v>3</v>
       </c>
       <c r="F186">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -4899,7 +4899,7 @@
         <v>2</v>
       </c>
       <c r="F187">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -4919,7 +4919,7 @@
         <v>4</v>
       </c>
       <c r="F188">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -4939,7 +4939,7 @@
         <v>2</v>
       </c>
       <c r="F189">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -4959,7 +4959,7 @@
         <v>3</v>
       </c>
       <c r="F190">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="F191">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -4999,7 +4999,7 @@
         <v>6</v>
       </c>
       <c r="F192">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5019,7 +5019,7 @@
         <v>6</v>
       </c>
       <c r="F193">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5039,7 +5039,7 @@
         <v>5</v>
       </c>
       <c r="F194">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5059,7 +5059,7 @@
         <v>1</v>
       </c>
       <c r="F195">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5079,7 +5079,7 @@
         <v>5</v>
       </c>
       <c r="F196">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -5099,7 +5099,7 @@
         <v>2</v>
       </c>
       <c r="F197">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5119,7 +5119,7 @@
         <v>6</v>
       </c>
       <c r="F198">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5139,7 +5139,7 @@
         <v>6</v>
       </c>
       <c r="F199">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -5159,7 +5159,7 @@
         <v>6</v>
       </c>
       <c r="F200">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5179,7 +5179,7 @@
         <v>3</v>
       </c>
       <c r="F201">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -5199,7 +5199,7 @@
         <v>2</v>
       </c>
       <c r="F202">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -5219,7 +5219,7 @@
         <v>4</v>
       </c>
       <c r="F203">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -5239,7 +5239,7 @@
         <v>6</v>
       </c>
       <c r="F204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -5259,7 +5259,7 @@
         <v>3</v>
       </c>
       <c r="F205">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -5279,7 +5279,7 @@
         <v>6</v>
       </c>
       <c r="F206">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -5299,7 +5299,7 @@
         <v>6</v>
       </c>
       <c r="F207">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="F208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -5339,7 +5339,7 @@
         <v>2</v>
       </c>
       <c r="F209">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -5359,7 +5359,7 @@
         <v>4</v>
       </c>
       <c r="F210">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -5379,7 +5379,7 @@
         <v>3</v>
       </c>
       <c r="F211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -5399,7 +5399,7 @@
         <v>5</v>
       </c>
       <c r="F212">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -5419,7 +5419,7 @@
         <v>5</v>
       </c>
       <c r="F213">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -5439,7 +5439,7 @@
         <v>2</v>
       </c>
       <c r="F214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -5459,7 +5459,7 @@
         <v>4</v>
       </c>
       <c r="F215">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -5479,7 +5479,7 @@
         <v>6</v>
       </c>
       <c r="F216">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -5499,7 +5499,7 @@
         <v>4</v>
       </c>
       <c r="F217">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -5519,7 +5519,7 @@
         <v>5</v>
       </c>
       <c r="F218">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -5539,7 +5539,7 @@
         <v>6</v>
       </c>
       <c r="F219">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -5559,7 +5559,7 @@
         <v>2</v>
       </c>
       <c r="F220">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -5579,7 +5579,7 @@
         <v>2</v>
       </c>
       <c r="F221">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -5599,7 +5599,7 @@
         <v>2</v>
       </c>
       <c r="F222">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -5619,7 +5619,7 @@
         <v>2</v>
       </c>
       <c r="F223">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -5639,7 +5639,7 @@
         <v>4</v>
       </c>
       <c r="F224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -5659,7 +5659,7 @@
         <v>6</v>
       </c>
       <c r="F225">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -5679,7 +5679,7 @@
         <v>3</v>
       </c>
       <c r="F226">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -5699,7 +5699,7 @@
         <v>2</v>
       </c>
       <c r="F227">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -5719,7 +5719,7 @@
         <v>4</v>
       </c>
       <c r="F228">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -5739,7 +5739,7 @@
         <v>1</v>
       </c>
       <c r="F229">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -5759,7 +5759,7 @@
         <v>6</v>
       </c>
       <c r="F230">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -5779,7 +5779,7 @@
         <v>3</v>
       </c>
       <c r="F231">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -5799,7 +5799,7 @@
         <v>2</v>
       </c>
       <c r="F232">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -5819,7 +5819,7 @@
         <v>2</v>
       </c>
       <c r="F233">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -5839,7 +5839,7 @@
         <v>3</v>
       </c>
       <c r="F234">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -5859,7 +5859,7 @@
         <v>4</v>
       </c>
       <c r="F235">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -5879,7 +5879,7 @@
         <v>4</v>
       </c>
       <c r="F236">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -5899,7 +5899,7 @@
         <v>5</v>
       </c>
       <c r="F237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -5919,7 +5919,7 @@
         <v>4</v>
       </c>
       <c r="F238">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -5939,7 +5939,7 @@
         <v>1</v>
       </c>
       <c r="F239">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -5959,7 +5959,7 @@
         <v>6</v>
       </c>
       <c r="F240">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -5979,7 +5979,7 @@
         <v>2</v>
       </c>
       <c r="F241">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -5999,7 +5999,7 @@
         <v>4</v>
       </c>
       <c r="F242">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -6019,7 +6019,7 @@
         <v>2</v>
       </c>
       <c r="F243">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -6039,7 +6039,7 @@
         <v>4</v>
       </c>
       <c r="F244">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -6059,7 +6059,7 @@
         <v>5</v>
       </c>
       <c r="F245">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -6079,7 +6079,7 @@
         <v>6</v>
       </c>
       <c r="F246">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -6099,7 +6099,7 @@
         <v>5</v>
       </c>
       <c r="F247">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -6119,7 +6119,7 @@
         <v>6</v>
       </c>
       <c r="F248">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -6139,7 +6139,7 @@
         <v>2</v>
       </c>
       <c r="F249">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -6159,7 +6159,7 @@
         <v>5</v>
       </c>
       <c r="F250">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -6179,7 +6179,7 @@
         <v>6</v>
       </c>
       <c r="F251">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -6199,7 +6199,7 @@
         <v>5</v>
       </c>
       <c r="F252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -6219,7 +6219,7 @@
         <v>4</v>
       </c>
       <c r="F253">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -6239,7 +6239,7 @@
         <v>5</v>
       </c>
       <c r="F254">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -6259,7 +6259,7 @@
         <v>5</v>
       </c>
       <c r="F255">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -6279,7 +6279,7 @@
         <v>3</v>
       </c>
       <c r="F256">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -6299,7 +6299,7 @@
         <v>6</v>
       </c>
       <c r="F257">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -6319,7 +6319,7 @@
         <v>4</v>
       </c>
       <c r="F258">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -6339,7 +6339,7 @@
         <v>2</v>
       </c>
       <c r="F259">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -6359,7 +6359,7 @@
         <v>6</v>
       </c>
       <c r="F260">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -6379,7 +6379,7 @@
         <v>3</v>
       </c>
       <c r="F261">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -6399,7 +6399,7 @@
         <v>2</v>
       </c>
       <c r="F262">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -6419,7 +6419,7 @@
         <v>6</v>
       </c>
       <c r="F263">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -6439,7 +6439,7 @@
         <v>4</v>
       </c>
       <c r="F264">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -6459,7 +6459,7 @@
         <v>3</v>
       </c>
       <c r="F265">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -6479,7 +6479,7 @@
         <v>3</v>
       </c>
       <c r="F266">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -6499,7 +6499,7 @@
         <v>6</v>
       </c>
       <c r="F267">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -6519,7 +6519,7 @@
         <v>6</v>
       </c>
       <c r="F268">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -6539,7 +6539,7 @@
         <v>6</v>
       </c>
       <c r="F269">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -6559,7 +6559,7 @@
         <v>6</v>
       </c>
       <c r="F270">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -6579,7 +6579,7 @@
         <v>4</v>
       </c>
       <c r="F271">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -6599,7 +6599,7 @@
         <v>6</v>
       </c>
       <c r="F272">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -6619,7 +6619,7 @@
         <v>5</v>
       </c>
       <c r="F273">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -6639,7 +6639,7 @@
         <v>2</v>
       </c>
       <c r="F274">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -6659,7 +6659,7 @@
         <v>2</v>
       </c>
       <c r="F275">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -6679,7 +6679,7 @@
         <v>6</v>
       </c>
       <c r="F276">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -6699,7 +6699,7 @@
         <v>6</v>
       </c>
       <c r="F277">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -6719,7 +6719,7 @@
         <v>2</v>
       </c>
       <c r="F278">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -6739,7 +6739,7 @@
         <v>5</v>
       </c>
       <c r="F279">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -6759,7 +6759,7 @@
         <v>4</v>
       </c>
       <c r="F280">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -6779,7 +6779,7 @@
         <v>4</v>
       </c>
       <c r="F281">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -6799,7 +6799,7 @@
         <v>2</v>
       </c>
       <c r="F282">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -6819,7 +6819,7 @@
         <v>6</v>
       </c>
       <c r="F283">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -6839,7 +6839,7 @@
         <v>4</v>
       </c>
       <c r="F284">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -6859,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="F285">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -6879,7 +6879,7 @@
         <v>3</v>
       </c>
       <c r="F286">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -6899,7 +6899,7 @@
         <v>3</v>
       </c>
       <c r="F287">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -6919,7 +6919,7 @@
         <v>6</v>
       </c>
       <c r="F288">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -6939,7 +6939,7 @@
         <v>4</v>
       </c>
       <c r="F289">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -6959,7 +6959,7 @@
         <v>6</v>
       </c>
       <c r="F290">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -6979,7 +6979,7 @@
         <v>2</v>
       </c>
       <c r="F291">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -6999,7 +6999,7 @@
         <v>5</v>
       </c>
       <c r="F292">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -7019,7 +7019,7 @@
         <v>4</v>
       </c>
       <c r="F293">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -7039,7 +7039,7 @@
         <v>5</v>
       </c>
       <c r="F294">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -7059,7 +7059,7 @@
         <v>3</v>
       </c>
       <c r="F295">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -7079,7 +7079,7 @@
         <v>2</v>
       </c>
       <c r="F296">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -7099,7 +7099,7 @@
         <v>3</v>
       </c>
       <c r="F297">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -7119,7 +7119,7 @@
         <v>3</v>
       </c>
       <c r="F298">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -7139,7 +7139,7 @@
         <v>4</v>
       </c>
       <c r="F299">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -7159,7 +7159,7 @@
         <v>2</v>
       </c>
       <c r="F300">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -7179,7 +7179,7 @@
         <v>5</v>
       </c>
       <c r="F301">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -7199,7 +7199,7 @@
         <v>5</v>
       </c>
       <c r="F302">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -7219,7 +7219,7 @@
         <v>4</v>
       </c>
       <c r="F303">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -7239,7 +7239,7 @@
         <v>6</v>
       </c>
       <c r="F304">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -7259,7 +7259,7 @@
         <v>5</v>
       </c>
       <c r="F305">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -7279,7 +7279,7 @@
         <v>3</v>
       </c>
       <c r="F306">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -7299,7 +7299,7 @@
         <v>2</v>
       </c>
       <c r="F307">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -7319,7 +7319,7 @@
         <v>5</v>
       </c>
       <c r="F308">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -7339,7 +7339,7 @@
         <v>2</v>
       </c>
       <c r="F309">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -7359,7 +7359,7 @@
         <v>6</v>
       </c>
       <c r="F310">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -7379,7 +7379,7 @@
         <v>3</v>
       </c>
       <c r="F311">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -7399,7 +7399,7 @@
         <v>3</v>
       </c>
       <c r="F312">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -7419,7 +7419,7 @@
         <v>6</v>
       </c>
       <c r="F313">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -7439,7 +7439,7 @@
         <v>1</v>
       </c>
       <c r="F314">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -7459,7 +7459,7 @@
         <v>2</v>
       </c>
       <c r="F315">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -7479,7 +7479,7 @@
         <v>3</v>
       </c>
       <c r="F316">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -7499,7 +7499,7 @@
         <v>2</v>
       </c>
       <c r="F317">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -7519,7 +7519,7 @@
         <v>3</v>
       </c>
       <c r="F318">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -7539,7 +7539,7 @@
         <v>2</v>
       </c>
       <c r="F319">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -7559,7 +7559,7 @@
         <v>5</v>
       </c>
       <c r="F320">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -7579,7 +7579,7 @@
         <v>4</v>
       </c>
       <c r="F321">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -7599,7 +7599,7 @@
         <v>6</v>
       </c>
       <c r="F322">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -7619,7 +7619,7 @@
         <v>2</v>
       </c>
       <c r="F323">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -7639,7 +7639,7 @@
         <v>5</v>
       </c>
       <c r="F324">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -7659,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="F325">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -7679,7 +7679,7 @@
         <v>4</v>
       </c>
       <c r="F326">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -7699,7 +7699,7 @@
         <v>2</v>
       </c>
       <c r="F327">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -7719,7 +7719,7 @@
         <v>3</v>
       </c>
       <c r="F328">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -7739,7 +7739,7 @@
         <v>2</v>
       </c>
       <c r="F329">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -7759,7 +7759,7 @@
         <v>4</v>
       </c>
       <c r="F330">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -7779,7 +7779,7 @@
         <v>5</v>
       </c>
       <c r="F331">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -7799,7 +7799,7 @@
         <v>6</v>
       </c>
       <c r="F332">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -7819,7 +7819,7 @@
         <v>3</v>
       </c>
       <c r="F333">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -7839,7 +7839,7 @@
         <v>1</v>
       </c>
       <c r="F334">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -7859,7 +7859,7 @@
         <v>4</v>
       </c>
       <c r="F335">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -7879,7 +7879,7 @@
         <v>5</v>
       </c>
       <c r="F336">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -7899,7 +7899,7 @@
         <v>2</v>
       </c>
       <c r="F337">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -7919,7 +7919,7 @@
         <v>2</v>
       </c>
       <c r="F338">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -7939,7 +7939,7 @@
         <v>5</v>
       </c>
       <c r="F339">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -7959,7 +7959,7 @@
         <v>6</v>
       </c>
       <c r="F340">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -7979,7 +7979,7 @@
         <v>2</v>
       </c>
       <c r="F341">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -7999,7 +7999,7 @@
         <v>2</v>
       </c>
       <c r="F342">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -8019,7 +8019,7 @@
         <v>6</v>
       </c>
       <c r="F343">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -8039,7 +8039,7 @@
         <v>3</v>
       </c>
       <c r="F344">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -8059,7 +8059,7 @@
         <v>5</v>
       </c>
       <c r="F345">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -8079,7 +8079,7 @@
         <v>5</v>
       </c>
       <c r="F346">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -8099,7 +8099,7 @@
         <v>6</v>
       </c>
       <c r="F347">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -8119,7 +8119,7 @@
         <v>2</v>
       </c>
       <c r="F348">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -8139,7 +8139,7 @@
         <v>3</v>
       </c>
       <c r="F349">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -8159,7 +8159,7 @@
         <v>3</v>
       </c>
       <c r="F350">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -8179,7 +8179,7 @@
         <v>6</v>
       </c>
       <c r="F351">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="F352">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -8219,7 +8219,7 @@
         <v>4</v>
       </c>
       <c r="F353">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -8239,7 +8239,7 @@
         <v>2</v>
       </c>
       <c r="F354">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -8259,7 +8259,7 @@
         <v>4</v>
       </c>
       <c r="F355">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -8279,7 +8279,7 @@
         <v>2</v>
       </c>
       <c r="F356">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -8299,7 +8299,7 @@
         <v>5</v>
       </c>
       <c r="F357">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -8319,7 +8319,7 @@
         <v>3</v>
       </c>
       <c r="F358">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -8339,7 +8339,7 @@
         <v>1</v>
       </c>
       <c r="F359">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -8359,7 +8359,7 @@
         <v>6</v>
       </c>
       <c r="F360">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
@@ -8379,7 +8379,7 @@
         <v>5</v>
       </c>
       <c r="F361">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -8399,7 +8399,7 @@
         <v>5</v>
       </c>
       <c r="F362">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
@@ -8419,7 +8419,7 @@
         <v>5</v>
       </c>
       <c r="F363">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -8439,7 +8439,7 @@
         <v>2</v>
       </c>
       <c r="F364">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
@@ -8459,7 +8459,7 @@
         <v>4</v>
       </c>
       <c r="F365">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -8479,7 +8479,7 @@
         <v>6</v>
       </c>
       <c r="F366">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
@@ -8499,7 +8499,7 @@
         <v>4</v>
       </c>
       <c r="F367">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -8519,7 +8519,7 @@
         <v>5</v>
       </c>
       <c r="F368">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -8539,7 +8539,7 @@
         <v>3</v>
       </c>
       <c r="F369">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
@@ -8559,7 +8559,7 @@
         <v>6</v>
       </c>
       <c r="F370">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -8579,7 +8579,7 @@
         <v>6</v>
       </c>
       <c r="F371">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -8599,7 +8599,7 @@
         <v>1</v>
       </c>
       <c r="F372">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -8619,7 +8619,7 @@
         <v>4</v>
       </c>
       <c r="F373">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -8639,7 +8639,7 @@
         <v>2</v>
       </c>
       <c r="F374">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -8659,7 +8659,7 @@
         <v>6</v>
       </c>
       <c r="F375">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
@@ -8679,7 +8679,7 @@
         <v>6</v>
       </c>
       <c r="F376">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -8699,7 +8699,7 @@
         <v>5</v>
       </c>
       <c r="F377">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -8719,7 +8719,7 @@
         <v>5</v>
       </c>
       <c r="F378">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
@@ -8739,7 +8739,7 @@
         <v>5</v>
       </c>
       <c r="F379">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
@@ -8759,7 +8759,7 @@
         <v>3</v>
       </c>
       <c r="F380">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -8779,7 +8779,7 @@
         <v>5</v>
       </c>
       <c r="F381">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -8799,7 +8799,7 @@
         <v>6</v>
       </c>
       <c r="F382">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -8819,7 +8819,7 @@
         <v>4</v>
       </c>
       <c r="F383">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -8839,7 +8839,7 @@
         <v>3</v>
       </c>
       <c r="F384">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
@@ -8859,7 +8859,7 @@
         <v>6</v>
       </c>
       <c r="F385">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -8879,7 +8879,7 @@
         <v>2</v>
       </c>
       <c r="F386">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
@@ -8899,7 +8899,7 @@
         <v>2</v>
       </c>
       <c r="F387">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
@@ -8919,7 +8919,7 @@
         <v>1</v>
       </c>
       <c r="F388">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
@@ -8939,7 +8939,7 @@
         <v>4</v>
       </c>
       <c r="F389">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -8959,7 +8959,7 @@
         <v>4</v>
       </c>
       <c r="F390">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -8979,7 +8979,7 @@
         <v>3</v>
       </c>
       <c r="F391">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
@@ -8999,7 +8999,7 @@
         <v>6</v>
       </c>
       <c r="F392">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
@@ -9019,7 +9019,7 @@
         <v>5</v>
       </c>
       <c r="F393">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
@@ -9039,7 +9039,7 @@
         <v>4</v>
       </c>
       <c r="F394">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -9059,7 +9059,7 @@
         <v>5</v>
       </c>
       <c r="F395">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -9079,7 +9079,7 @@
         <v>3</v>
       </c>
       <c r="F396">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
@@ -9099,7 +9099,7 @@
         <v>2</v>
       </c>
       <c r="F397">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -9119,7 +9119,7 @@
         <v>4</v>
       </c>
       <c r="F398">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
@@ -9139,7 +9139,7 @@
         <v>1</v>
       </c>
       <c r="F399">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -9159,7 +9159,7 @@
         <v>3</v>
       </c>
       <c r="F400">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
@@ -9179,7 +9179,7 @@
         <v>5</v>
       </c>
       <c r="F401">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
@@ -9199,7 +9199,7 @@
         <v>2</v>
       </c>
       <c r="F402">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
@@ -9219,7 +9219,7 @@
         <v>1</v>
       </c>
       <c r="F403">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
@@ -9239,7 +9239,7 @@
         <v>4</v>
       </c>
       <c r="F404">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
@@ -9259,7 +9259,7 @@
         <v>4</v>
       </c>
       <c r="F405">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
@@ -9279,7 +9279,7 @@
         <v>1</v>
       </c>
       <c r="F406">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
@@ -9299,7 +9299,7 @@
         <v>5</v>
       </c>
       <c r="F407">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
@@ -9319,7 +9319,7 @@
         <v>5</v>
       </c>
       <c r="F408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
@@ -9339,7 +9339,7 @@
         <v>5</v>
       </c>
       <c r="F409">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
@@ -9359,7 +9359,7 @@
         <v>3</v>
       </c>
       <c r="F410">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
@@ -9379,7 +9379,7 @@
         <v>4</v>
       </c>
       <c r="F411">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="F412">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
@@ -9419,7 +9419,7 @@
         <v>6</v>
       </c>
       <c r="F413">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
@@ -9439,7 +9439,7 @@
         <v>3</v>
       </c>
       <c r="F414">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
@@ -9459,7 +9459,7 @@
         <v>3</v>
       </c>
       <c r="F415">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
@@ -9479,7 +9479,7 @@
         <v>3</v>
       </c>
       <c r="F416">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
@@ -9499,7 +9499,7 @@
         <v>5</v>
       </c>
       <c r="F417">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
@@ -9519,7 +9519,7 @@
         <v>5</v>
       </c>
       <c r="F418">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
@@ -9539,7 +9539,7 @@
         <v>5</v>
       </c>
       <c r="F419">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
@@ -9559,7 +9559,7 @@
         <v>3</v>
       </c>
       <c r="F420">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
@@ -9579,7 +9579,7 @@
         <v>5</v>
       </c>
       <c r="F421">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
@@ -9599,7 +9599,7 @@
         <v>3</v>
       </c>
       <c r="F422">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
@@ -9619,7 +9619,7 @@
         <v>5</v>
       </c>
       <c r="F423">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
@@ -9639,7 +9639,7 @@
         <v>3</v>
       </c>
       <c r="F424">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
@@ -9659,7 +9659,7 @@
         <v>4</v>
       </c>
       <c r="F425">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
@@ -9679,7 +9679,7 @@
         <v>6</v>
       </c>
       <c r="F426">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
@@ -9699,7 +9699,7 @@
         <v>6</v>
       </c>
       <c r="F427">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
@@ -9719,7 +9719,7 @@
         <v>2</v>
       </c>
       <c r="F428">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
@@ -9739,7 +9739,7 @@
         <v>6</v>
       </c>
       <c r="F429">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
@@ -9759,7 +9759,7 @@
         <v>3</v>
       </c>
       <c r="F430">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -9779,7 +9779,7 @@
         <v>5</v>
       </c>
       <c r="F431">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
@@ -9799,7 +9799,7 @@
         <v>6</v>
       </c>
       <c r="F432">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
@@ -9819,7 +9819,7 @@
         <v>3</v>
       </c>
       <c r="F433">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
@@ -9839,7 +9839,7 @@
         <v>4</v>
       </c>
       <c r="F434">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
@@ -9859,7 +9859,7 @@
         <v>3</v>
       </c>
       <c r="F435">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
@@ -9879,7 +9879,7 @@
         <v>4</v>
       </c>
       <c r="F436">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
@@ -9899,7 +9899,7 @@
         <v>3</v>
       </c>
       <c r="F437">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
@@ -9919,7 +9919,7 @@
         <v>2</v>
       </c>
       <c r="F438">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
@@ -9939,7 +9939,7 @@
         <v>5</v>
       </c>
       <c r="F439">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
@@ -9959,7 +9959,7 @@
         <v>3</v>
       </c>
       <c r="F440">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
@@ -9979,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="F441">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
@@ -9999,7 +9999,7 @@
         <v>3</v>
       </c>
       <c r="F442">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
@@ -10019,7 +10019,7 @@
         <v>5</v>
       </c>
       <c r="F443">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
@@ -10039,7 +10039,7 @@
         <v>2</v>
       </c>
       <c r="F444">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
@@ -10059,7 +10059,7 @@
         <v>5</v>
       </c>
       <c r="F445">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
@@ -10079,7 +10079,7 @@
         <v>2</v>
       </c>
       <c r="F446">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -10099,7 +10099,7 @@
         <v>6</v>
       </c>
       <c r="F447">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
@@ -10119,7 +10119,7 @@
         <v>5</v>
       </c>
       <c r="F448">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -10139,7 +10139,7 @@
         <v>6</v>
       </c>
       <c r="F449">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
@@ -10159,7 +10159,7 @@
         <v>4</v>
       </c>
       <c r="F450">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
@@ -10179,7 +10179,7 @@
         <v>4</v>
       </c>
       <c r="F451">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
@@ -10199,7 +10199,7 @@
         <v>1</v>
       </c>
       <c r="F452">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
@@ -10219,7 +10219,7 @@
         <v>6</v>
       </c>
       <c r="F453">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
@@ -10239,7 +10239,7 @@
         <v>6</v>
       </c>
       <c r="F454">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -10259,7 +10259,7 @@
         <v>2</v>
       </c>
       <c r="F455">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
@@ -10279,7 +10279,7 @@
         <v>1</v>
       </c>
       <c r="F456">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
@@ -10299,7 +10299,7 @@
         <v>4</v>
       </c>
       <c r="F457">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -10319,7 +10319,7 @@
         <v>5</v>
       </c>
       <c r="F458">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
@@ -10339,7 +10339,7 @@
         <v>6</v>
       </c>
       <c r="F459">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
@@ -10359,7 +10359,7 @@
         <v>6</v>
       </c>
       <c r="F460">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
@@ -10379,7 +10379,7 @@
         <v>2</v>
       </c>
       <c r="F461">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
@@ -10399,7 +10399,7 @@
         <v>6</v>
       </c>
       <c r="F462">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
@@ -10419,7 +10419,7 @@
         <v>2</v>
       </c>
       <c r="F463">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
@@ -10439,7 +10439,7 @@
         <v>1</v>
       </c>
       <c r="F464">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
@@ -10459,7 +10459,7 @@
         <v>4</v>
       </c>
       <c r="F465">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -10479,7 +10479,7 @@
         <v>4</v>
       </c>
       <c r="F466">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
@@ -10499,7 +10499,7 @@
         <v>2</v>
       </c>
       <c r="F467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
@@ -10519,7 +10519,7 @@
         <v>5</v>
       </c>
       <c r="F468">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
@@ -10539,7 +10539,7 @@
         <v>3</v>
       </c>
       <c r="F469">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
@@ -10559,7 +10559,7 @@
         <v>6</v>
       </c>
       <c r="F470">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
@@ -10579,7 +10579,7 @@
         <v>2</v>
       </c>
       <c r="F471">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
@@ -10599,7 +10599,7 @@
         <v>5</v>
       </c>
       <c r="F472">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
@@ -10619,7 +10619,7 @@
         <v>2</v>
       </c>
       <c r="F473">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
@@ -10639,7 +10639,7 @@
         <v>4</v>
       </c>
       <c r="F474">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
@@ -10659,7 +10659,7 @@
         <v>3</v>
       </c>
       <c r="F475">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
@@ -10679,7 +10679,7 @@
         <v>2</v>
       </c>
       <c r="F476">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
@@ -10699,7 +10699,7 @@
         <v>5</v>
       </c>
       <c r="F477">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
@@ -10739,7 +10739,7 @@
         <v>3</v>
       </c>
       <c r="F479">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
@@ -10759,7 +10759,7 @@
         <v>2</v>
       </c>
       <c r="F480">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
@@ -10779,7 +10779,7 @@
         <v>5</v>
       </c>
       <c r="F481">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
@@ -10799,7 +10799,7 @@
         <v>3</v>
       </c>
       <c r="F482">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
@@ -10819,7 +10819,7 @@
         <v>2</v>
       </c>
       <c r="F483">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
@@ -10839,7 +10839,7 @@
         <v>5</v>
       </c>
       <c r="F484">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
@@ -10859,7 +10859,7 @@
         <v>5</v>
       </c>
       <c r="F485">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
@@ -10879,7 +10879,7 @@
         <v>4</v>
       </c>
       <c r="F486">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
@@ -10899,7 +10899,7 @@
         <v>5</v>
       </c>
       <c r="F487">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
@@ -10919,7 +10919,7 @@
         <v>2</v>
       </c>
       <c r="F488">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
@@ -10939,7 +10939,7 @@
         <v>4</v>
       </c>
       <c r="F489">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
@@ -10959,7 +10959,7 @@
         <v>2</v>
       </c>
       <c r="F490">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
@@ -10979,7 +10979,7 @@
         <v>4</v>
       </c>
       <c r="F491">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
@@ -10999,7 +10999,7 @@
         <v>5</v>
       </c>
       <c r="F492">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
@@ -11019,7 +11019,7 @@
         <v>6</v>
       </c>
       <c r="F493">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
@@ -11039,7 +11039,7 @@
         <v>3</v>
       </c>
       <c r="F494">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
@@ -11059,7 +11059,7 @@
         <v>2</v>
       </c>
       <c r="F495">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
@@ -11079,7 +11079,7 @@
         <v>6</v>
       </c>
       <c r="F496">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
@@ -11099,7 +11099,7 @@
         <v>2</v>
       </c>
       <c r="F497">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
@@ -11119,7 +11119,7 @@
         <v>3</v>
       </c>
       <c r="F498">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
@@ -11139,7 +11139,7 @@
         <v>5</v>
       </c>
       <c r="F499">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
@@ -11159,7 +11159,7 @@
         <v>5</v>
       </c>
       <c r="F500">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
@@ -11179,7 +11179,7 @@
         <v>2</v>
       </c>
       <c r="F501">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
@@ -11199,7 +11199,7 @@
         <v>5</v>
       </c>
       <c r="F502">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
@@ -11219,7 +11219,7 @@
         <v>3</v>
       </c>
       <c r="F503">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
@@ -11239,7 +11239,7 @@
         <v>5</v>
       </c>
       <c r="F504">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
@@ -11259,7 +11259,7 @@
         <v>5</v>
       </c>
       <c r="F505">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
@@ -11279,7 +11279,7 @@
         <v>4</v>
       </c>
       <c r="F506">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
@@ -11299,7 +11299,7 @@
         <v>3</v>
       </c>
       <c r="F507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
@@ -11319,7 +11319,7 @@
         <v>3</v>
       </c>
       <c r="F508">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
@@ -11339,7 +11339,7 @@
         <v>5</v>
       </c>
       <c r="F509">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
@@ -11359,7 +11359,7 @@
         <v>4</v>
       </c>
       <c r="F510">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
@@ -11379,7 +11379,7 @@
         <v>5</v>
       </c>
       <c r="F511">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
@@ -11399,7 +11399,7 @@
         <v>2</v>
       </c>
       <c r="F512">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
@@ -11419,7 +11419,7 @@
         <v>3</v>
       </c>
       <c r="F513">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="F514">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
@@ -11459,7 +11459,7 @@
         <v>2</v>
       </c>
       <c r="F515">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
@@ -11479,7 +11479,7 @@
         <v>4</v>
       </c>
       <c r="F516">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
@@ -11499,7 +11499,7 @@
         <v>6</v>
       </c>
       <c r="F517">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
@@ -11519,7 +11519,7 @@
         <v>5</v>
       </c>
       <c r="F518">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
@@ -11539,7 +11539,7 @@
         <v>1</v>
       </c>
       <c r="F519">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
@@ -11559,7 +11559,7 @@
         <v>5</v>
       </c>
       <c r="F520">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
@@ -11579,7 +11579,7 @@
         <v>1</v>
       </c>
       <c r="F521">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
@@ -11599,7 +11599,7 @@
         <v>5</v>
       </c>
       <c r="F522">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
@@ -11619,7 +11619,7 @@
         <v>6</v>
       </c>
       <c r="F523">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
@@ -11639,7 +11639,7 @@
         <v>2</v>
       </c>
       <c r="F524">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
@@ -11659,7 +11659,7 @@
         <v>4</v>
       </c>
       <c r="F525">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
@@ -11679,7 +11679,7 @@
         <v>1</v>
       </c>
       <c r="F526">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
@@ -11699,7 +11699,7 @@
         <v>3</v>
       </c>
       <c r="F527">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
@@ -11719,7 +11719,7 @@
         <v>2</v>
       </c>
       <c r="F528">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
@@ -11739,7 +11739,7 @@
         <v>2</v>
       </c>
       <c r="F529">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
@@ -11759,7 +11759,7 @@
         <v>6</v>
       </c>
       <c r="F530">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
@@ -11779,7 +11779,7 @@
         <v>4</v>
       </c>
       <c r="F531">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
@@ -11799,7 +11799,7 @@
         <v>3</v>
       </c>
       <c r="F532">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
@@ -11819,7 +11819,7 @@
         <v>6</v>
       </c>
       <c r="F533">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
@@ -11839,7 +11839,7 @@
         <v>6</v>
       </c>
       <c r="F534">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
@@ -11859,7 +11859,7 @@
         <v>3</v>
       </c>
       <c r="F535">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
@@ -11879,7 +11879,7 @@
         <v>3</v>
       </c>
       <c r="F536">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
@@ -11899,7 +11899,7 @@
         <v>5</v>
       </c>
       <c r="F537">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
@@ -11919,7 +11919,7 @@
         <v>5</v>
       </c>
       <c r="F538">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
@@ -11939,7 +11939,7 @@
         <v>3</v>
       </c>
       <c r="F539">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
@@ -11959,7 +11959,7 @@
         <v>4</v>
       </c>
       <c r="F540">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
@@ -11979,7 +11979,7 @@
         <v>3</v>
       </c>
       <c r="F541">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
@@ -11999,7 +11999,7 @@
         <v>4</v>
       </c>
       <c r="F542">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
@@ -12019,7 +12019,7 @@
         <v>5</v>
       </c>
       <c r="F543">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
@@ -12039,7 +12039,7 @@
         <v>3</v>
       </c>
       <c r="F544">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
@@ -12059,7 +12059,7 @@
         <v>6</v>
       </c>
       <c r="F545">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
@@ -12079,7 +12079,7 @@
         <v>6</v>
       </c>
       <c r="F546">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
@@ -12099,7 +12099,7 @@
         <v>5</v>
       </c>
       <c r="F547">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
@@ -12119,7 +12119,7 @@
         <v>2</v>
       </c>
       <c r="F548">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
@@ -12139,7 +12139,7 @@
         <v>4</v>
       </c>
       <c r="F549">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
@@ -12159,7 +12159,7 @@
         <v>2</v>
       </c>
       <c r="F550">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
@@ -12179,7 +12179,7 @@
         <v>5</v>
       </c>
       <c r="F551">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
@@ -12199,7 +12199,7 @@
         <v>5</v>
       </c>
       <c r="F552">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
@@ -12219,7 +12219,7 @@
         <v>3</v>
       </c>
       <c r="F553">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
@@ -12239,7 +12239,7 @@
         <v>5</v>
       </c>
       <c r="F554">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
@@ -12259,7 +12259,7 @@
         <v>4</v>
       </c>
       <c r="F555">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
@@ -12279,7 +12279,7 @@
         <v>5</v>
       </c>
       <c r="F556">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
@@ -12299,7 +12299,7 @@
         <v>4</v>
       </c>
       <c r="F557">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
@@ -12319,7 +12319,7 @@
         <v>2</v>
       </c>
       <c r="F558">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
@@ -12339,7 +12339,7 @@
         <v>1</v>
       </c>
       <c r="F559">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
@@ -12359,7 +12359,7 @@
         <v>2</v>
       </c>
       <c r="F560">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
@@ -12379,7 +12379,7 @@
         <v>2</v>
       </c>
       <c r="F561">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
@@ -12399,7 +12399,7 @@
         <v>2</v>
       </c>
       <c r="F562">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
@@ -12419,7 +12419,7 @@
         <v>2</v>
       </c>
       <c r="F563">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
@@ -12439,7 +12439,7 @@
         <v>5</v>
       </c>
       <c r="F564">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
@@ -12459,7 +12459,7 @@
         <v>4</v>
       </c>
       <c r="F565">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
@@ -12479,7 +12479,7 @@
         <v>2</v>
       </c>
       <c r="F566">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
@@ -12499,7 +12499,7 @@
         <v>2</v>
       </c>
       <c r="F567">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
@@ -12519,7 +12519,7 @@
         <v>1</v>
       </c>
       <c r="F568">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
@@ -12539,7 +12539,7 @@
         <v>2</v>
       </c>
       <c r="F569">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
@@ -12559,7 +12559,7 @@
         <v>1</v>
       </c>
       <c r="F570">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
@@ -12579,7 +12579,7 @@
         <v>1</v>
       </c>
       <c r="F571">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
@@ -12599,7 +12599,7 @@
         <v>1</v>
       </c>
       <c r="F572">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
@@ -12619,7 +12619,7 @@
         <v>1</v>
       </c>
       <c r="F573">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
@@ -12639,7 +12639,7 @@
         <v>2</v>
       </c>
       <c r="F574">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
@@ -12679,7 +12679,7 @@
         <v>1</v>
       </c>
       <c r="F576">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
@@ -12699,7 +12699,7 @@
         <v>2</v>
       </c>
       <c r="F577">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
@@ -12719,7 +12719,7 @@
         <v>2</v>
       </c>
       <c r="F578">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
@@ -12739,7 +12739,7 @@
         <v>1</v>
       </c>
       <c r="F579">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
@@ -12759,7 +12759,7 @@
         <v>2</v>
       </c>
       <c r="F580">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
@@ -12779,7 +12779,7 @@
         <v>3</v>
       </c>
       <c r="F581">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
@@ -12799,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="F582">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
@@ -12819,7 +12819,7 @@
         <v>1</v>
       </c>
       <c r="F583">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
@@ -12839,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="F584">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
@@ -12859,7 +12859,7 @@
         <v>2</v>
       </c>
       <c r="F585">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
@@ -12899,7 +12899,7 @@
         <v>2</v>
       </c>
       <c r="F587">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
@@ -12919,7 +12919,7 @@
         <v>2</v>
       </c>
       <c r="F588">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
@@ -12939,7 +12939,7 @@
         <v>2</v>
       </c>
       <c r="F589">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
@@ -12959,7 +12959,7 @@
         <v>1</v>
       </c>
       <c r="F590">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.25">
@@ -12979,7 +12979,7 @@
         <v>1</v>
       </c>
       <c r="F591">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
@@ -12999,7 +12999,7 @@
         <v>1</v>
       </c>
       <c r="F592">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.25">
@@ -13019,7 +13019,7 @@
         <v>1</v>
       </c>
       <c r="F593">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
@@ -13059,7 +13059,7 @@
         <v>2</v>
       </c>
       <c r="F595">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
@@ -13079,7 +13079,7 @@
         <v>3</v>
       </c>
       <c r="F596">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
@@ -13099,7 +13099,7 @@
         <v>2</v>
       </c>
       <c r="F597">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
@@ -13159,7 +13159,7 @@
         <v>2</v>
       </c>
       <c r="F600">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
@@ -13199,7 +13199,7 @@
         <v>1</v>
       </c>
       <c r="F602">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
@@ -13219,7 +13219,7 @@
         <v>2</v>
       </c>
       <c r="F603">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.25">
@@ -13239,7 +13239,7 @@
         <v>2</v>
       </c>
       <c r="F604">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
@@ -13259,7 +13259,7 @@
         <v>1</v>
       </c>
       <c r="F605">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
@@ -13279,7 +13279,7 @@
         <v>2</v>
       </c>
       <c r="F606">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
@@ -13299,7 +13299,7 @@
         <v>2</v>
       </c>
       <c r="F607">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.25">
@@ -13319,7 +13319,7 @@
         <v>1</v>
       </c>
       <c r="F608">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
@@ -13339,7 +13339,7 @@
         <v>2</v>
       </c>
       <c r="F609">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
@@ -13359,7 +13359,7 @@
         <v>2</v>
       </c>
       <c r="F610">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
@@ -13379,7 +13379,7 @@
         <v>3</v>
       </c>
       <c r="F611">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
@@ -13399,7 +13399,7 @@
         <v>1</v>
       </c>
       <c r="F612">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
@@ -13419,7 +13419,7 @@
         <v>2</v>
       </c>
       <c r="F613">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
@@ -13439,7 +13439,7 @@
         <v>1</v>
       </c>
       <c r="F614">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
@@ -13459,7 +13459,7 @@
         <v>2</v>
       </c>
       <c r="F615">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
@@ -13479,7 +13479,7 @@
         <v>6</v>
       </c>
       <c r="F616">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
@@ -13499,7 +13499,7 @@
         <v>2</v>
       </c>
       <c r="F617">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
@@ -13519,7 +13519,7 @@
         <v>2</v>
       </c>
       <c r="F618">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="F619">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
@@ -13559,7 +13559,7 @@
         <v>3</v>
       </c>
       <c r="F620">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
@@ -13579,7 +13579,7 @@
         <v>4</v>
       </c>
       <c r="F621">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
@@ -13599,7 +13599,7 @@
         <v>4</v>
       </c>
       <c r="F622">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
@@ -13619,7 +13619,7 @@
         <v>2</v>
       </c>
       <c r="F623">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
@@ -13639,7 +13639,7 @@
         <v>2</v>
       </c>
       <c r="F624">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
@@ -13659,7 +13659,7 @@
         <v>3</v>
       </c>
       <c r="F625">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
@@ -13679,7 +13679,7 @@
         <v>2</v>
       </c>
       <c r="F626">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
@@ -13699,7 +13699,7 @@
         <v>1</v>
       </c>
       <c r="F627">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
@@ -13719,7 +13719,7 @@
         <v>3</v>
       </c>
       <c r="F628">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
@@ -13739,7 +13739,7 @@
         <v>1</v>
       </c>
       <c r="F629">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
@@ -13759,7 +13759,7 @@
         <v>5</v>
       </c>
       <c r="F630">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
@@ -13779,7 +13779,7 @@
         <v>3</v>
       </c>
       <c r="F631">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
@@ -13799,7 +13799,7 @@
         <v>1</v>
       </c>
       <c r="F632">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
@@ -13819,7 +13819,7 @@
         <v>2</v>
       </c>
       <c r="F633">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
@@ -13839,7 +13839,7 @@
         <v>2</v>
       </c>
       <c r="F634">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
@@ -13879,7 +13879,7 @@
         <v>2</v>
       </c>
       <c r="F636">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
@@ -13899,7 +13899,7 @@
         <v>3</v>
       </c>
       <c r="F637">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
@@ -13919,7 +13919,7 @@
         <v>1</v>
       </c>
       <c r="F638">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
@@ -13939,7 +13939,7 @@
         <v>1</v>
       </c>
       <c r="F639">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
@@ -13959,7 +13959,7 @@
         <v>2</v>
       </c>
       <c r="F640">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
@@ -13979,7 +13979,7 @@
         <v>2</v>
       </c>
       <c r="F641">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
@@ -13999,7 +13999,7 @@
         <v>2</v>
       </c>
       <c r="F642">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
@@ -14019,7 +14019,7 @@
         <v>1</v>
       </c>
       <c r="F643">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
@@ -14059,7 +14059,7 @@
         <v>2</v>
       </c>
       <c r="F645">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
@@ -14099,7 +14099,7 @@
         <v>1</v>
       </c>
       <c r="F647">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
@@ -14119,7 +14119,7 @@
         <v>2</v>
       </c>
       <c r="F648">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
@@ -14139,7 +14139,7 @@
         <v>2</v>
       </c>
       <c r="F649">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
@@ -14159,7 +14159,7 @@
         <v>3</v>
       </c>
       <c r="F650">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
@@ -14199,7 +14199,7 @@
         <v>1</v>
       </c>
       <c r="F652">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
@@ -14219,7 +14219,7 @@
         <v>2</v>
       </c>
       <c r="F653">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.25">
@@ -14239,7 +14239,7 @@
         <v>1</v>
       </c>
       <c r="F654">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
@@ -14259,7 +14259,7 @@
         <v>2</v>
       </c>
       <c r="F655">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
@@ -14279,7 +14279,7 @@
         <v>1</v>
       </c>
       <c r="F656">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
@@ -14299,7 +14299,7 @@
         <v>1</v>
       </c>
       <c r="F657">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.25">
@@ -14319,7 +14319,7 @@
         <v>3</v>
       </c>
       <c r="F658">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.25">
@@ -14339,7 +14339,7 @@
         <v>2</v>
       </c>
       <c r="F659">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
@@ -14359,7 +14359,7 @@
         <v>2</v>
       </c>
       <c r="F660">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
@@ -14379,7 +14379,7 @@
         <v>1</v>
       </c>
       <c r="F661">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
@@ -14399,7 +14399,7 @@
         <v>2</v>
       </c>
       <c r="F662">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
@@ -14419,7 +14419,7 @@
         <v>1</v>
       </c>
       <c r="F663">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.25">
@@ -14439,7 +14439,7 @@
         <v>2</v>
       </c>
       <c r="F664">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.25">
@@ -14479,7 +14479,7 @@
         <v>1</v>
       </c>
       <c r="F666">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.25">
@@ -14499,7 +14499,7 @@
         <v>2</v>
       </c>
       <c r="F667">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.25">
@@ -14519,7 +14519,7 @@
         <v>2</v>
       </c>
       <c r="F668">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.25">
@@ -14539,7 +14539,7 @@
         <v>2</v>
       </c>
       <c r="F669">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.25">
@@ -14559,7 +14559,7 @@
         <v>1</v>
       </c>
       <c r="F670">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.25">
@@ -14599,7 +14599,7 @@
         <v>1</v>
       </c>
       <c r="F672">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
@@ -14619,7 +14619,7 @@
         <v>2</v>
       </c>
       <c r="F673">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
@@ -14639,7 +14639,7 @@
         <v>2</v>
       </c>
       <c r="F674">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
@@ -14679,7 +14679,7 @@
         <v>1</v>
       </c>
       <c r="F676">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.25">
@@ -14699,7 +14699,7 @@
         <v>2</v>
       </c>
       <c r="F677">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
@@ -14719,7 +14719,7 @@
         <v>2</v>
       </c>
       <c r="F678">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
@@ -14739,7 +14739,7 @@
         <v>1</v>
       </c>
       <c r="F679">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.25">
@@ -14759,7 +14759,7 @@
         <v>2</v>
       </c>
       <c r="F680">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
@@ -14779,7 +14779,7 @@
         <v>3</v>
       </c>
       <c r="F681">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.25">
@@ -14799,7 +14799,7 @@
         <v>4</v>
       </c>
       <c r="F682">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.25">
@@ -14819,7 +14819,7 @@
         <v>2</v>
       </c>
       <c r="F683">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
@@ -14839,7 +14839,7 @@
         <v>2</v>
       </c>
       <c r="F684">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.25">
@@ -14879,7 +14879,7 @@
         <v>1</v>
       </c>
       <c r="F686">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.25">
@@ -14899,7 +14899,7 @@
         <v>2</v>
       </c>
       <c r="F687">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
@@ -14939,7 +14939,7 @@
         <v>4</v>
       </c>
       <c r="F689">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.25">
@@ -14959,7 +14959,7 @@
         <v>2</v>
       </c>
       <c r="F690">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.25">
@@ -14979,7 +14979,7 @@
         <v>3</v>
       </c>
       <c r="F691">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
@@ -15019,7 +15019,7 @@
         <v>3</v>
       </c>
       <c r="F693">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.25">
@@ -15039,7 +15039,7 @@
         <v>2</v>
       </c>
       <c r="F694">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.25">
@@ -15059,7 +15059,7 @@
         <v>2</v>
       </c>
       <c r="F695">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.25">
@@ -15079,7 +15079,7 @@
         <v>2</v>
       </c>
       <c r="F696">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.25">
@@ -15099,7 +15099,7 @@
         <v>5</v>
       </c>
       <c r="F697">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.25">
@@ -15119,7 +15119,7 @@
         <v>2</v>
       </c>
       <c r="F698">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.25">
@@ -15139,7 +15139,7 @@
         <v>3</v>
       </c>
       <c r="F699">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.25">
@@ -15159,7 +15159,7 @@
         <v>2</v>
       </c>
       <c r="F700">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.25">
@@ -15179,7 +15179,7 @@
         <v>4</v>
       </c>
       <c r="F701">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.25">
@@ -15199,7 +15199,7 @@
         <v>1</v>
       </c>
       <c r="F702">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.25">
@@ -15219,7 +15219,7 @@
         <v>1</v>
       </c>
       <c r="F703">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
@@ -15239,7 +15239,7 @@
         <v>3</v>
       </c>
       <c r="F704">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.25">
@@ -15259,7 +15259,7 @@
         <v>2</v>
       </c>
       <c r="F705">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
@@ -15279,7 +15279,7 @@
         <v>3</v>
       </c>
       <c r="F706">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
@@ -15299,7 +15299,7 @@
         <v>1</v>
       </c>
       <c r="F707">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.25">
@@ -15319,7 +15319,7 @@
         <v>1</v>
       </c>
       <c r="F708">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.25">
@@ -15339,7 +15339,7 @@
         <v>4</v>
       </c>
       <c r="F709">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.25">
@@ -15359,7 +15359,7 @@
         <v>2</v>
       </c>
       <c r="F710">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.25">
@@ -15379,7 +15379,7 @@
         <v>2</v>
       </c>
       <c r="F711">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.25">
@@ -15399,7 +15399,7 @@
         <v>1</v>
       </c>
       <c r="F712">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -15414,11 +15414,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64A590-AEB9-48A6-88F6-31B492852A86}">
   <dimension ref="A1:C205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C205"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
